--- a/Data Base Excel/BBDD TFG.xlsx
+++ b/Data Base Excel/BBDD TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cp\Documents\GitHub\DecatlonEstadistics\Data Base Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9726561-5EEC-467B-9DD9-3BB57D27F165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDAAD02-F9BA-4C23-BBEE-424401388B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{97397618-4A2D-41B1-A9E9-91F0F946CE28}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="134">
   <si>
     <t>Atleta</t>
   </si>
@@ -229,9 +229,6 @@
     <t>8,,48</t>
   </si>
   <si>
-    <t>DNS</t>
-  </si>
-  <si>
     <t>Heldge Lovland</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>Livari Yrjölä</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,8 +661,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BFFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -918,11 +930,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,12 +1032,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,9 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1133,12 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,12 +1163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,9 +1199,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,25 +1246,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,7 +1291,43 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1318,14 +1338,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8BFFD8"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFE27A7A"/>
       <color rgb="FF8DE1E3"/>
       <color rgb="FFFFD1D1"/>
       <color rgb="FFD1D1FF"/>
       <color rgb="FF1D7375"/>
       <color rgb="FF43CED1"/>
-      <color rgb="FF8BFFD8"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFDA5252"/>
       <color rgb="FFD80000"/>
     </mruColors>
@@ -1640,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CA6DD8-1120-4D33-8765-94141649A8ED}">
   <dimension ref="A1:Y204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,196 +1674,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="56">
         <v>1912</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="58">
         <v>1</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="59">
         <v>8412.9549999999999</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="60">
         <v>11.2</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="61">
         <v>904.8</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="62">
         <v>6.79</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="62">
         <v>830.95</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="63">
         <v>12.89</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="63">
         <v>809</v>
       </c>
-      <c r="L3" s="67">
+      <c r="L3" s="64">
         <v>1.87</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="64">
         <v>958</v>
       </c>
-      <c r="N3" s="68">
+      <c r="N3" s="65">
         <v>52.2</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="65">
         <v>857.12</v>
       </c>
-      <c r="P3" s="63">
+      <c r="P3" s="60">
         <v>15.6</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="61">
         <v>943</v>
       </c>
-      <c r="R3" s="65">
+      <c r="R3" s="62">
         <v>36.979999999999997</v>
       </c>
-      <c r="S3" s="65">
+      <c r="S3" s="62">
         <v>829.76</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="63">
         <v>3.25</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="63">
         <v>751.6</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="64">
         <v>45.7</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="64">
         <v>748.92499999999995</v>
       </c>
-      <c r="X3" s="69">
+      <c r="X3" s="66">
         <v>3.2418981481481478E-3</v>
       </c>
-      <c r="Y3" s="70">
+      <c r="Y3" s="67">
         <v>779.8</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
+      <c r="A4" s="68">
         <v>1912</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="124" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="17">
@@ -1909,18 +1929,18 @@
       <c r="X4" s="32">
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="Y4" s="72">
+      <c r="Y4" s="69">
         <v>750.4</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
+      <c r="A5" s="68">
         <v>1912</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="129" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="8">
@@ -1986,18 +2006,18 @@
       <c r="X5" s="31">
         <v>3.6134259259259257E-3</v>
       </c>
-      <c r="Y5" s="73">
+      <c r="Y5" s="70">
         <v>587.20000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
+      <c r="A6" s="68">
         <v>1912</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="124" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="17">
@@ -2063,18 +2083,18 @@
       <c r="X6" s="32">
         <v>3.2627314814814815E-3</v>
       </c>
-      <c r="Y6" s="72">
+      <c r="Y6" s="69">
         <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
+      <c r="A7" s="68">
         <v>1912</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="129" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="8">
@@ -2140,18 +2160,18 @@
       <c r="X7" s="31">
         <v>3.2870370370370367E-3</v>
       </c>
-      <c r="Y7" s="73">
+      <c r="Y7" s="70">
         <v>756.4</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
+      <c r="A8" s="68">
         <v>1912</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="124" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="17">
@@ -2217,18 +2237,18 @@
       <c r="X8" s="32">
         <v>3.3136574074074075E-3</v>
       </c>
-      <c r="Y8" s="72">
+      <c r="Y8" s="69">
         <v>742.6</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
+      <c r="A9" s="68">
         <v>1912</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="129" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="8">
@@ -2294,18 +2314,18 @@
       <c r="X9" s="31">
         <v>3.2858796296296295E-3</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="70">
         <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
+      <c r="A10" s="68">
         <v>1912</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="124" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="17">
@@ -2371,18 +2391,18 @@
       <c r="X10" s="32">
         <v>3.2812499999999999E-3</v>
       </c>
-      <c r="Y10" s="72">
+      <c r="Y10" s="69">
         <v>759.4</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
+      <c r="A11" s="68">
         <v>1912</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="129" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="8">
@@ -2448,18 +2468,18 @@
       <c r="X11" s="31">
         <v>3.5046296296296297E-3</v>
       </c>
-      <c r="Y11" s="73">
+      <c r="Y11" s="70">
         <v>643.6</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="A12" s="68">
         <v>1912</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="124" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="17">
@@ -2525,18 +2545,18 @@
       <c r="X12" s="32">
         <v>3.5046296296296297E-3</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="69">
         <v>643.6</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="68">
         <v>1912</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="129" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="8">
@@ -2602,18 +2622,18 @@
       <c r="X13" s="31">
         <v>3.3148148148148151E-3</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13" s="70">
         <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="A14" s="68">
         <v>1912</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="124" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="17">
@@ -2679,18 +2699,18 @@
       <c r="X14" s="32">
         <v>3.5717592592592593E-3</v>
       </c>
-      <c r="Y14" s="72">
+      <c r="Y14" s="69">
         <v>608.79999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
+      <c r="A15" s="68">
         <v>1912</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="129" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="8">
@@ -2754,20 +2774,20 @@
         <v>638.1</v>
       </c>
       <c r="X15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="A16" s="68">
         <v>1912</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="124" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="17">
@@ -2831,16 +2851,16 @@
         <v>826.47500000000002</v>
       </c>
       <c r="X16" s="32"/>
-      <c r="Y16" s="72"/>
+      <c r="Y16" s="69"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="A17" s="68">
         <v>1912</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="129" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="8">
@@ -2898,26 +2918,26 @@
         <v>454.6</v>
       </c>
       <c r="V17" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W17" s="13">
         <v>0</v>
       </c>
       <c r="X17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y17" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="68">
         <v>1912</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="124" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="17">
@@ -2975,26 +2995,26 @@
         <v>562.6</v>
       </c>
       <c r="V18" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W18" s="21">
         <v>0</v>
       </c>
       <c r="X18" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y18" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="A19" s="68">
         <v>1912</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="129" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="8">
@@ -3046,32 +3066,32 @@
         <v>388.56</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U19" s="12">
         <v>0</v>
       </c>
       <c r="V19" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W19" s="13">
         <v>0</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y19" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="68">
         <v>1912</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="124" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="17">
@@ -3123,32 +3143,32 @@
         <v>572.12</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U20" s="20">
         <v>0</v>
       </c>
       <c r="V20" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W20" s="21">
         <v>0</v>
       </c>
       <c r="X20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y20" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="68">
         <v>1912</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="129" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="8">
@@ -3182,50 +3202,50 @@
         <v>720</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O21" s="29">
         <v>0</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="11">
         <v>0</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S21" s="5">
         <v>0</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U21" s="12">
         <v>0</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W21" s="13">
         <v>0</v>
       </c>
       <c r="X21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="68">
         <v>1912</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="124" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="17">
@@ -3259,50 +3279,50 @@
         <v>720</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O22" s="30">
         <v>0</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="19">
         <v>0</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S22" s="14">
         <v>0</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U22" s="20">
         <v>0</v>
       </c>
       <c r="V22" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W22" s="21">
         <v>0</v>
       </c>
       <c r="X22" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y22" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="A23" s="68">
         <v>1912</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="129" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="8">
@@ -3336,50 +3356,50 @@
         <v>510</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O23" s="29">
         <v>0</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="11">
         <v>0</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S23" s="5">
         <v>0</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U23" s="12">
         <v>0</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W23" s="13">
         <v>0</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y23" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="A24" s="68">
         <v>1912</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="124" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="17">
@@ -3413,50 +3433,50 @@
         <v>580</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O24" s="30">
         <v>0</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="19">
         <v>0</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
       </c>
       <c r="T24" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U24" s="20">
         <v>0</v>
       </c>
       <c r="V24" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W24" s="21">
         <v>0</v>
       </c>
       <c r="X24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y24" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y24" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="A25" s="68">
         <v>1912</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="129" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="8">
@@ -3490,50 +3510,50 @@
         <v>440</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O25" s="29">
         <v>0</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="11">
         <v>0</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S25" s="5">
         <v>0</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U25" s="12">
         <v>0</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W25" s="13">
         <v>0</v>
       </c>
       <c r="X25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y25" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y25" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="68">
         <v>1912</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="124" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="17">
@@ -3561,56 +3581,56 @@
         <v>574</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M26" s="21">
         <v>0</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O26" s="30">
         <v>0</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="19">
         <v>0</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S26" s="14">
         <v>0</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U26" s="20">
         <v>0</v>
       </c>
       <c r="V26" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W26" s="21">
         <v>0</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y26" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y26" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="68">
         <v>1912</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="129" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="8">
@@ -3638,56 +3658,56 @@
         <v>536</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M27" s="13">
         <v>0</v>
       </c>
       <c r="N27" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O27" s="29">
         <v>0</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="11">
         <v>0</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S27" s="5">
         <v>0</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U27" s="12">
         <v>0</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W27" s="13">
         <v>0</v>
       </c>
       <c r="X27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y27" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="A28" s="68">
         <v>1912</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="124" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="17">
@@ -3715,56 +3735,56 @@
         <v>506</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M28" s="21">
         <v>0</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O28" s="30">
         <v>0</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="19">
         <v>0</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S28" s="14">
         <v>0</v>
       </c>
       <c r="T28" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U28" s="20">
         <v>0</v>
       </c>
       <c r="V28" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W28" s="21">
         <v>0</v>
       </c>
       <c r="X28" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y28" s="72">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="A29" s="68">
         <v>1912</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="129" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="8">
@@ -3792,56 +3812,56 @@
         <v>550</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M29" s="13">
         <v>0</v>
       </c>
       <c r="N29" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O29" s="29">
         <v>0</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="11">
         <v>0</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="S29" s="5">
         <v>0</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U29" s="12">
         <v>0</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="W29" s="13">
         <v>0</v>
       </c>
       <c r="X29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y29" s="73">
+        <v>56</v>
+      </c>
+      <c r="Y29" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="71">
+      <c r="A30" s="68">
         <v>1912</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="17">
@@ -3869,3184 +3889,4731 @@
         <v>343</v>
       </c>
       <c r="L30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="30">
+        <v>0</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U30" s="20">
+        <v>0</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="21">
+        <v>0</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y30" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="107">
+        <v>1912</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="108">
+        <v>29</v>
+      </c>
+      <c r="E31" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="110">
+        <v>13.3</v>
+      </c>
+      <c r="G31" s="111">
+        <v>405</v>
+      </c>
+      <c r="H31" s="112">
+        <v>5.43</v>
+      </c>
+      <c r="I31" s="112">
+        <v>497.75</v>
+      </c>
+      <c r="J31" s="113">
+        <v>11.05</v>
+      </c>
+      <c r="K31" s="113">
+        <v>625</v>
+      </c>
+      <c r="L31" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="114">
+        <v>0</v>
+      </c>
+      <c r="N31" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="115">
+        <v>0</v>
+      </c>
+      <c r="P31" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="111">
+        <v>0</v>
+      </c>
+      <c r="R31" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" s="112">
+        <v>0</v>
+      </c>
+      <c r="T31" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="113">
+        <v>0</v>
+      </c>
+      <c r="V31" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="114">
+        <v>0</v>
+      </c>
+      <c r="X31" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="103">
+        <v>1920</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>0</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="S30" s="14">
-        <v>0</v>
-      </c>
-      <c r="T30" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U30" s="20">
-        <v>0</v>
-      </c>
-      <c r="V30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="W30" s="21">
-        <v>0</v>
-      </c>
-      <c r="X30" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y30" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119">
-        <v>1912</v>
-      </c>
-      <c r="B31" s="118" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="120" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="121">
-        <v>29</v>
-      </c>
-      <c r="E31" s="122" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="123">
-        <v>13.3</v>
-      </c>
-      <c r="G31" s="124">
-        <v>405</v>
-      </c>
-      <c r="H31" s="125">
-        <v>5.43</v>
-      </c>
-      <c r="I31" s="125">
-        <v>497.75</v>
-      </c>
-      <c r="J31" s="126">
-        <v>11.05</v>
-      </c>
-      <c r="K31" s="126">
-        <v>625</v>
-      </c>
-      <c r="L31" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="127">
-        <v>0</v>
-      </c>
-      <c r="N31" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="128">
-        <v>0</v>
-      </c>
-      <c r="P31" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="124">
-        <v>0</v>
-      </c>
-      <c r="R31" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="S31" s="125">
-        <v>0</v>
-      </c>
-      <c r="T31" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="U31" s="126">
-        <v>0</v>
-      </c>
-      <c r="V31" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="W31" s="127">
-        <v>0</v>
-      </c>
-      <c r="X31" s="129" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y31" s="130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="111">
-        <v>1920</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="88">
+      <c r="D32" s="81">
         <v>1</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="82">
         <f>G32+I32+K32+M32+O32+Q32+S32+U32+W32+Y32</f>
         <v>6805.3549999999996</v>
       </c>
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="83">
+        <v>668.8</v>
+      </c>
+      <c r="H32" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="84">
+        <v>676.6</v>
+      </c>
+      <c r="J32" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="85">
+        <v>585</v>
+      </c>
+      <c r="L32" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="86">
+        <v>608</v>
+      </c>
+      <c r="N32" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="87">
+        <v>751.84</v>
+      </c>
+      <c r="P32" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="90">
-        <v>668.8</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="91">
-        <v>676.6</v>
-      </c>
-      <c r="J32" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="K32" s="92">
-        <v>585</v>
-      </c>
-      <c r="L32" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="M32" s="93">
-        <v>608</v>
-      </c>
-      <c r="N32" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" s="94">
-        <v>751.84</v>
-      </c>
-      <c r="P32" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q32" s="90">
+      <c r="Q32" s="83">
         <v>700.94</v>
       </c>
-      <c r="R32" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="S32" s="91">
+      <c r="R32" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" s="84">
         <v>886</v>
       </c>
-      <c r="T32" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="U32" s="92">
+      <c r="T32" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="U32" s="85">
         <v>595</v>
       </c>
-      <c r="V32" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="W32" s="93">
+      <c r="V32" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="W32" s="86">
         <v>642.77499999999998</v>
       </c>
-      <c r="X32" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y32" s="96">
+      <c r="X32" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y32" s="89">
         <v>690.4</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="112">
+      <c r="A33" s="104">
         <v>1920</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="115" t="s">
-        <v>67</v>
+      <c r="C33" s="131" t="s">
+        <v>66</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="86">
-        <f t="shared" ref="E33:E54" si="0">G33+I33+K33+M33+O33+Q33+S33+U33+W33+Y33</f>
+      <c r="E33" s="79">
+        <f t="shared" ref="E33:E43" si="0">G33+I33+K33+M33+O33+Q33+S33+U33+W33+Y33</f>
         <v>6771.085</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="11">
         <v>809.6</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="5">
         <v>687.625</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K33" s="12">
         <v>627</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M33" s="13">
         <v>538</v>
       </c>
       <c r="N33" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="29">
         <v>744.32</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q33" s="11">
         <v>655.34</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S33" s="5">
         <v>781.5</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U33" s="12">
         <v>649</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W33" s="13">
         <v>644.70000000000005</v>
       </c>
       <c r="X33" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y33" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y33" s="70">
         <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="112">
+      <c r="A34" s="104">
         <v>1920</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="116" t="s">
-        <v>68</v>
+      <c r="C34" s="126" t="s">
+        <v>67</v>
       </c>
       <c r="D34" s="17">
         <v>3</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="49">
         <f t="shared" si="0"/>
         <v>6582.03</v>
       </c>
-      <c r="F34" s="52" t="s">
-        <v>98</v>
+      <c r="F34" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G34" s="19">
         <v>668.8</v>
       </c>
-      <c r="H34" s="53" t="s">
-        <v>98</v>
+      <c r="H34" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I34" s="14">
         <v>714.57500000000005</v>
       </c>
-      <c r="J34" s="54" t="s">
-        <v>98</v>
+      <c r="J34" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K34" s="20">
         <v>573</v>
       </c>
-      <c r="L34" s="55" t="s">
-        <v>98</v>
+      <c r="L34" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M34" s="21">
         <v>608</v>
       </c>
-      <c r="N34" s="56" t="s">
-        <v>98</v>
+      <c r="N34" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O34" s="30">
         <v>744.32</v>
       </c>
-      <c r="P34" s="52" t="s">
-        <v>99</v>
+      <c r="P34" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q34" s="19">
         <v>717.66</v>
       </c>
-      <c r="R34" s="53" t="s">
-        <v>98</v>
+      <c r="R34" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S34" s="14">
         <v>810</v>
       </c>
-      <c r="T34" s="54" t="s">
-        <v>98</v>
+      <c r="T34" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U34" s="20">
         <v>649</v>
       </c>
-      <c r="V34" s="55" t="s">
-        <v>98</v>
+      <c r="V34" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W34" s="21">
         <v>419.47500000000002</v>
       </c>
-      <c r="X34" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y34" s="72">
+      <c r="X34" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34" s="69">
         <v>677.2</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="112">
+      <c r="A35" s="104">
         <v>1920</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="131" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="79">
         <f t="shared" si="0"/>
         <v>6532.15</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="11">
         <v>714.4</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" s="5">
         <v>588.4</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" s="12">
         <v>572</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M35" s="13">
         <v>678</v>
       </c>
       <c r="N35" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O35" s="29">
         <v>687.92</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q35" s="11">
         <v>605.17999999999995</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S35" s="5">
         <v>848</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U35" s="12">
         <v>595</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W35" s="13">
         <v>632.04999999999995</v>
       </c>
       <c r="X35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y35" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y35" s="70">
         <v>611.20000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="112">
+      <c r="A36" s="104">
         <v>1920</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="116" t="s">
-        <v>129</v>
+      <c r="C36" s="126" t="s">
+        <v>128</v>
       </c>
       <c r="D36" s="17">
         <v>5</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="49">
         <f t="shared" si="0"/>
         <v>6433.6299999999992</v>
       </c>
-      <c r="F36" s="52" t="s">
-        <v>98</v>
+      <c r="F36" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G36" s="19">
         <v>619.20000000000005</v>
       </c>
-      <c r="H36" s="53" t="s">
-        <v>98</v>
+      <c r="H36" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I36" s="14">
         <v>527.25</v>
       </c>
-      <c r="J36" s="54" t="s">
-        <v>98</v>
+      <c r="J36" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K36" s="20">
         <v>605</v>
       </c>
-      <c r="L36" s="55" t="s">
-        <v>98</v>
+      <c r="L36" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M36" s="21">
         <v>748</v>
       </c>
-      <c r="N36" s="56" t="s">
-        <v>98</v>
+      <c r="N36" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O36" s="30">
         <v>718</v>
       </c>
-      <c r="P36" s="52" t="s">
-        <v>99</v>
+      <c r="P36" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q36" s="19">
         <v>603.28</v>
       </c>
-      <c r="R36" s="53" t="s">
-        <v>98</v>
+      <c r="R36" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S36" s="14">
         <v>525</v>
       </c>
-      <c r="T36" s="54" t="s">
-        <v>98</v>
+      <c r="T36" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U36" s="20">
         <v>703</v>
       </c>
-      <c r="V36" s="55" t="s">
-        <v>98</v>
+      <c r="V36" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W36" s="21">
         <v>677.7</v>
       </c>
-      <c r="X36" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y36" s="72">
+      <c r="X36" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y36" s="69">
         <v>707.2</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="112">
+      <c r="A37" s="104">
         <v>1920</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="131" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="8">
         <v>6</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="79">
         <f t="shared" si="0"/>
         <v>6405.46</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="11">
         <v>762</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" s="5">
         <v>637.4</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" s="12">
         <v>610</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M37" s="13">
         <v>538</v>
       </c>
       <c r="N37" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O37" s="29">
         <v>827.04</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="11">
         <v>509.42</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S37" s="5">
         <v>829</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U37" s="12">
         <v>487</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W37" s="13">
         <v>498.4</v>
       </c>
       <c r="X37" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y37" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y37" s="70">
         <v>707.2</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="112">
+      <c r="A38" s="104">
         <v>1920</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="116" t="s">
-        <v>69</v>
+      <c r="C38" s="126" t="s">
+        <v>68</v>
       </c>
       <c r="D38" s="17">
         <v>7</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="49">
         <f t="shared" si="0"/>
         <v>6360.57</v>
       </c>
-      <c r="F38" s="52" t="s">
-        <v>98</v>
+      <c r="F38" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G38" s="19">
         <v>668.8</v>
       </c>
-      <c r="H38" s="53" t="s">
-        <v>98</v>
+      <c r="H38" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I38" s="14">
         <v>639.85</v>
       </c>
-      <c r="J38" s="54" t="s">
-        <v>98</v>
+      <c r="J38" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K38" s="20">
         <v>582</v>
       </c>
-      <c r="L38" s="55" t="s">
-        <v>98</v>
+      <c r="L38" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M38" s="21">
         <v>608</v>
       </c>
-      <c r="N38" s="56" t="s">
-        <v>98</v>
+      <c r="N38" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O38" s="30">
         <v>718</v>
       </c>
-      <c r="P38" s="52" t="s">
-        <v>99</v>
+      <c r="P38" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q38" s="19">
         <v>699.42</v>
       </c>
-      <c r="R38" s="53" t="s">
-        <v>98</v>
+      <c r="R38" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S38" s="14">
         <v>800.5</v>
       </c>
-      <c r="T38" s="54" t="s">
-        <v>98</v>
+      <c r="T38" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U38" s="20">
         <v>649</v>
       </c>
-      <c r="V38" s="55" t="s">
-        <v>98</v>
+      <c r="V38" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W38" s="21">
         <v>293.8</v>
       </c>
-      <c r="X38" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y38" s="72">
+      <c r="X38" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y38" s="69">
         <v>701.2</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="112">
+      <c r="A39" s="104">
         <v>1920</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="115" t="s">
-        <v>70</v>
+      <c r="C39" s="131" t="s">
+        <v>69</v>
       </c>
       <c r="D39" s="8">
         <v>8</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="79">
         <f t="shared" si="0"/>
         <v>6233.4349999999995</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="11">
         <v>668.8</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="5">
         <v>693.75</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K39" s="12">
         <v>535</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M39" s="13">
         <v>608</v>
       </c>
       <c r="N39" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O39" s="29">
         <v>714.24</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q39" s="11">
         <v>560.72</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S39" s="5">
         <v>829</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U39" s="12">
         <v>433</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W39" s="13">
         <v>578.52499999999998</v>
       </c>
       <c r="X39" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y39" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y39" s="70">
         <v>612.4</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="112">
+      <c r="A40" s="104">
         <v>1920</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="116" t="s">
-        <v>71</v>
+      <c r="C40" s="126" t="s">
+        <v>70</v>
       </c>
       <c r="D40" s="17">
         <v>9</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="49">
         <f t="shared" si="0"/>
         <v>5949.78</v>
       </c>
-      <c r="F40" s="52" t="s">
-        <v>98</v>
+      <c r="F40" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G40" s="19">
         <v>668.8</v>
       </c>
-      <c r="H40" s="53" t="s">
-        <v>98</v>
+      <c r="H40" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I40" s="14">
         <v>608</v>
       </c>
-      <c r="J40" s="54" t="s">
-        <v>98</v>
+      <c r="J40" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K40" s="20">
         <v>525</v>
       </c>
-      <c r="L40" s="55" t="s">
-        <v>98</v>
+      <c r="L40" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M40" s="21">
         <v>538</v>
       </c>
-      <c r="N40" s="56" t="s">
-        <v>98</v>
+      <c r="N40" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O40" s="30">
         <v>669.12</v>
       </c>
-      <c r="P40" s="52" t="s">
-        <v>99</v>
+      <c r="P40" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q40" s="19">
         <v>527.66</v>
       </c>
-      <c r="R40" s="53" t="s">
-        <v>98</v>
+      <c r="R40" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S40" s="14">
         <v>791</v>
       </c>
-      <c r="T40" s="54" t="s">
-        <v>98</v>
+      <c r="T40" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U40" s="20">
         <v>541</v>
       </c>
-      <c r="V40" s="55" t="s">
-        <v>98</v>
+      <c r="V40" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W40" s="21">
         <v>474.2</v>
       </c>
-      <c r="X40" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y40" s="72">
+      <c r="X40" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y40" s="69">
         <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="112">
+      <c r="A41" s="104">
         <v>1920</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="115" t="s">
-        <v>84</v>
+      <c r="C41" s="131" t="s">
+        <v>83</v>
       </c>
       <c r="D41" s="8">
         <v>10</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="79">
         <f t="shared" si="0"/>
         <v>5273.2799999999988</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="11">
         <v>714.4</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I41" s="5">
         <v>571.25</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K41" s="12">
         <v>437</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M41" s="13">
         <v>328</v>
       </c>
       <c r="N41" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41" s="29">
         <v>706.72</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q41" s="11">
         <v>514.36</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S41" s="5">
         <v>601</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U41" s="12">
         <v>433</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W41" s="13">
         <v>325.14999999999998</v>
       </c>
       <c r="X41" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y41" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y41" s="70">
         <v>642.4</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="112">
+      <c r="A42" s="104">
         <v>1920</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="116" t="s">
-        <v>72</v>
+      <c r="C42" s="126" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="17">
         <v>11</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="49">
         <f t="shared" si="0"/>
         <v>5091.5199999999995</v>
       </c>
-      <c r="F42" s="52" t="s">
-        <v>98</v>
+      <c r="F42" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G42" s="19">
         <v>619.20000000000005</v>
       </c>
-      <c r="H42" s="53" t="s">
-        <v>98</v>
+      <c r="H42" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I42" s="14">
         <v>592.07500000000005</v>
       </c>
-      <c r="J42" s="54" t="s">
-        <v>98</v>
+      <c r="J42" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K42" s="20">
         <v>413</v>
       </c>
-      <c r="L42" s="55" t="s">
-        <v>98</v>
+      <c r="L42" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M42" s="21">
         <v>468</v>
       </c>
-      <c r="N42" s="56" t="s">
-        <v>98</v>
+      <c r="N42" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O42" s="30">
         <v>691.68</v>
       </c>
-      <c r="P42" s="52" t="s">
-        <v>99</v>
+      <c r="P42" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q42" s="19">
         <v>357.04</v>
       </c>
-      <c r="R42" s="53" t="s">
-        <v>98</v>
+      <c r="R42" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S42" s="14">
         <v>715</v>
       </c>
-      <c r="T42" s="54" t="s">
-        <v>98</v>
+      <c r="T42" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U42" s="20">
         <v>433</v>
       </c>
-      <c r="V42" s="55" t="s">
-        <v>98</v>
+      <c r="V42" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W42" s="21">
         <v>137.32499999999999</v>
       </c>
-      <c r="X42" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y42" s="72">
+      <c r="X42" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y42" s="69">
         <v>665.2</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="112">
+      <c r="A43" s="104">
         <v>1920</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="115" t="s">
-        <v>73</v>
+      <c r="C43" s="131" t="s">
+        <v>72</v>
       </c>
       <c r="D43" s="8">
         <v>12</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="79">
         <f t="shared" si="0"/>
         <v>3668.6299999999997</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="11">
         <v>643</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43" s="5">
         <v>517.35</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K43" s="12">
         <v>279</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M43" s="13">
         <v>328</v>
       </c>
       <c r="N43" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O43" s="29">
         <v>661.6</v>
       </c>
       <c r="P43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q43" s="11">
         <v>116.88</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S43" s="5">
         <v>0</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U43" s="12">
         <v>271</v>
       </c>
       <c r="V43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W43" s="13">
         <v>298.2</v>
       </c>
       <c r="X43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y43" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y43" s="70">
         <v>553.6</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="112">
+      <c r="A44" s="104">
         <v>1920</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="116" t="s">
-        <v>74</v>
+      <c r="C44" s="126" t="s">
+        <v>73</v>
       </c>
       <c r="D44" s="17">
         <v>13</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>98</v>
+      <c r="E44" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G44" s="19">
         <v>668.8</v>
       </c>
-      <c r="H44" s="53" t="s">
-        <v>98</v>
+      <c r="H44" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I44" s="14">
         <v>567.57500000000005</v>
       </c>
-      <c r="J44" s="54" t="s">
-        <v>98</v>
+      <c r="J44" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K44" s="20">
         <v>547</v>
       </c>
-      <c r="L44" s="55" t="s">
-        <v>98</v>
+      <c r="L44" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M44" s="21">
         <v>608</v>
       </c>
-      <c r="N44" s="56" t="s">
-        <v>98</v>
+      <c r="N44" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O44" s="30">
         <v>785.68</v>
       </c>
-      <c r="P44" s="52" t="s">
-        <v>99</v>
+      <c r="P44" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q44" s="19">
         <v>555.02</v>
       </c>
-      <c r="R44" s="53" t="s">
-        <v>98</v>
+      <c r="R44" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S44" s="14">
         <v>867</v>
       </c>
-      <c r="T44" s="54" t="s">
-        <v>98</v>
+      <c r="T44" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U44" s="20">
         <v>379</v>
       </c>
-      <c r="V44" s="55" t="s">
-        <v>98</v>
+      <c r="V44" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W44" s="21">
         <v>348.25</v>
       </c>
-      <c r="X44" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y44" s="72">
+      <c r="X44" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y44" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="112">
+      <c r="A45" s="104">
         <v>1920</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="115" t="s">
-        <v>75</v>
+      <c r="C45" s="131" t="s">
+        <v>74</v>
       </c>
       <c r="D45" s="8">
         <v>14</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G45" s="11">
         <v>668.8</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I45" s="5">
         <v>675.375</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" s="12">
         <v>565</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" s="13">
         <v>608</v>
       </c>
       <c r="N45" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O45" s="29">
         <v>718</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q45" s="11">
         <v>374.14</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S45" s="5">
         <v>810</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U45" s="12">
         <v>217</v>
       </c>
       <c r="V45" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W45" s="13">
         <v>305.35000000000002</v>
       </c>
       <c r="X45" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y45" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y45" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="112">
+      <c r="A46" s="104">
         <v>1920</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="116" t="s">
-        <v>102</v>
+      <c r="C46" s="126" t="s">
+        <v>101</v>
       </c>
       <c r="D46" s="17">
         <v>15</v>
       </c>
-      <c r="E46" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>98</v>
+      <c r="E46" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G46" s="19">
         <v>571.6</v>
       </c>
-      <c r="H46" s="53" t="s">
-        <v>98</v>
+      <c r="H46" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I46" s="14">
         <v>659.45</v>
       </c>
-      <c r="J46" s="54" t="s">
-        <v>98</v>
+      <c r="J46" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K46" s="20">
         <v>627</v>
       </c>
-      <c r="L46" s="55" t="s">
-        <v>98</v>
+      <c r="L46" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M46" s="21">
         <v>678</v>
       </c>
-      <c r="N46" s="56" t="s">
-        <v>98</v>
+      <c r="N46" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O46" s="30">
         <v>699.2</v>
       </c>
-      <c r="P46" s="52" t="s">
-        <v>99</v>
+      <c r="P46" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="Q46" s="19">
         <v>646.6</v>
       </c>
-      <c r="R46" s="53" t="s">
-        <v>98</v>
+      <c r="R46" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S46" s="14">
         <v>715</v>
       </c>
-      <c r="T46" s="54" t="s">
-        <v>98</v>
+      <c r="T46" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="U46" s="20">
         <v>541</v>
       </c>
-      <c r="V46" s="55" t="s">
-        <v>98</v>
+      <c r="V46" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W46" s="21">
         <v>0</v>
       </c>
-      <c r="X46" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y46" s="72">
+      <c r="X46" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y46" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="112">
+      <c r="A47" s="104">
         <v>1920</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="115" t="s">
-        <v>76</v>
+      <c r="C47" s="131" t="s">
+        <v>75</v>
       </c>
       <c r="D47" s="8">
         <v>16</v>
       </c>
-      <c r="E47" s="86" t="s">
+      <c r="E47" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G47" s="11">
         <v>668.8</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47" s="5">
         <v>525.92499999999995</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K47" s="12">
         <v>611</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M47" s="13">
         <v>538</v>
       </c>
       <c r="N47" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O47" s="29">
         <v>759.36</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q47" s="11">
         <v>489.96</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S47" s="5">
         <v>886</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U47" s="12">
         <v>325</v>
       </c>
       <c r="V47" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W47" s="13">
         <v>0</v>
       </c>
       <c r="X47" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y47" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y47" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="112">
+      <c r="A48" s="104">
         <v>1920</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="116" t="s">
-        <v>77</v>
+      <c r="C48" s="126" t="s">
+        <v>76</v>
       </c>
       <c r="D48" s="17">
         <v>17</v>
       </c>
-      <c r="E48" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>98</v>
+      <c r="E48" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G48" s="19">
         <v>524</v>
       </c>
-      <c r="H48" s="53" t="s">
-        <v>98</v>
+      <c r="H48" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I48" s="14">
         <v>544.29999999999995</v>
       </c>
-      <c r="J48" s="54" t="s">
-        <v>98</v>
+      <c r="J48" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K48" s="20">
         <v>527</v>
       </c>
-      <c r="L48" s="55" t="s">
-        <v>98</v>
+      <c r="L48" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M48" s="21">
         <v>468</v>
       </c>
-      <c r="N48" s="56" t="s">
-        <v>98</v>
+      <c r="N48" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O48" s="30">
         <v>631.52</v>
       </c>
-      <c r="P48" s="52" t="s">
-        <v>65</v>
+      <c r="P48" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="Q48" s="19">
         <v>0</v>
       </c>
-      <c r="R48" s="53" t="s">
-        <v>98</v>
+      <c r="R48" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="S48" s="14">
         <v>620</v>
       </c>
-      <c r="T48" s="54" t="s">
-        <v>65</v>
+      <c r="T48" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="U48" s="20">
         <v>0</v>
       </c>
-      <c r="V48" s="55" t="s">
-        <v>98</v>
+      <c r="V48" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W48" s="21">
         <v>0</v>
       </c>
-      <c r="X48" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y48" s="72">
+      <c r="X48" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y48" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="112">
+      <c r="A49" s="104">
         <v>1920</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="115" t="s">
-        <v>78</v>
+      <c r="C49" s="131" t="s">
+        <v>77</v>
       </c>
       <c r="D49" s="8">
         <v>18</v>
       </c>
-      <c r="E49" s="86" t="s">
+      <c r="E49" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G49" s="11">
         <v>762</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I49" s="5">
         <v>743.97500000000002</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K49" s="12">
         <v>532</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M49" s="13">
         <v>398</v>
       </c>
       <c r="N49" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O49" s="29">
         <v>766.88</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="11">
         <v>0</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S49" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="T49" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U49" s="12">
         <v>0</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W49" s="13">
         <v>0</v>
       </c>
       <c r="X49" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y49" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y49" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="112">
+      <c r="A50" s="104">
         <v>1920</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="116" t="s">
-        <v>79</v>
+      <c r="C50" s="126" t="s">
+        <v>78</v>
       </c>
       <c r="D50" s="17">
         <v>19</v>
       </c>
-      <c r="E50" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>98</v>
+      <c r="E50" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G50" s="19">
         <v>762</v>
       </c>
-      <c r="H50" s="53" t="s">
-        <v>98</v>
+      <c r="H50" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I50" s="14">
         <v>638.625</v>
       </c>
-      <c r="J50" s="54" t="s">
-        <v>98</v>
+      <c r="J50" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K50" s="20">
         <v>459</v>
       </c>
-      <c r="L50" s="55" t="s">
-        <v>98</v>
+      <c r="L50" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M50" s="21">
         <v>398</v>
       </c>
-      <c r="N50" s="56" t="s">
-        <v>98</v>
+      <c r="N50" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="O50" s="30">
         <v>721.76</v>
       </c>
-      <c r="P50" s="52" t="s">
-        <v>65</v>
+      <c r="P50" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="Q50" s="19">
         <v>0</v>
       </c>
-      <c r="R50" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="S50" s="14"/>
-      <c r="T50" s="54" t="s">
-        <v>65</v>
+      <c r="R50" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T50" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="U50" s="20">
         <v>0</v>
       </c>
-      <c r="V50" s="55" t="s">
-        <v>98</v>
+      <c r="V50" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W50" s="21">
         <v>0</v>
       </c>
-      <c r="X50" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y50" s="72">
+      <c r="X50" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y50" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="112">
+      <c r="A51" s="104">
         <v>1920</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="115" t="s">
-        <v>80</v>
+      <c r="C51" s="131" t="s">
+        <v>79</v>
       </c>
       <c r="D51" s="8">
         <v>20</v>
       </c>
-      <c r="E51" s="86" t="s">
+      <c r="E51" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="11">
         <v>571.6</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" s="5">
         <v>617.79999999999995</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K51" s="12">
         <v>635</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M51" s="13">
         <v>468</v>
       </c>
       <c r="N51" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O51" s="29">
         <v>548.79999999999995</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="11">
         <v>0</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="T51" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U51" s="12">
         <v>0</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W51" s="13">
         <v>0</v>
       </c>
       <c r="X51" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y51" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y51" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="112">
+      <c r="A52" s="104">
         <v>1920</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="116" t="s">
-        <v>81</v>
+      <c r="C52" s="126" t="s">
+        <v>80</v>
       </c>
       <c r="D52" s="17">
         <v>21</v>
       </c>
-      <c r="E52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>98</v>
+      <c r="E52" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="G52" s="19">
         <v>476.4</v>
       </c>
-      <c r="H52" s="53" t="s">
-        <v>98</v>
+      <c r="H52" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="I52" s="14">
         <v>472.02499999999998</v>
       </c>
-      <c r="J52" s="54" t="s">
-        <v>98</v>
+      <c r="J52" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K52" s="20">
         <v>605</v>
       </c>
-      <c r="L52" s="55" t="s">
-        <v>98</v>
+      <c r="L52" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="M52" s="21">
         <v>608</v>
       </c>
-      <c r="N52" s="56" t="s">
-        <v>65</v>
+      <c r="N52" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="O52" s="30">
         <v>0</v>
       </c>
-      <c r="P52" s="52" t="s">
-        <v>65</v>
+      <c r="P52" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="Q52" s="19">
         <v>0</v>
       </c>
-      <c r="R52" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="S52" s="14"/>
-      <c r="T52" s="54" t="s">
-        <v>65</v>
+      <c r="R52" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T52" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="U52" s="20">
         <v>0</v>
       </c>
-      <c r="V52" s="55" t="s">
-        <v>98</v>
+      <c r="V52" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="W52" s="21">
         <v>0</v>
       </c>
-      <c r="X52" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y52" s="72">
+      <c r="X52" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y52" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="112">
+      <c r="A53" s="104">
         <v>1920</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="115" t="s">
-        <v>82</v>
+      <c r="C53" s="131" t="s">
+        <v>81</v>
       </c>
       <c r="D53" s="8">
         <v>22</v>
       </c>
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G53" s="11">
         <v>524</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I53" s="5">
         <v>490.4</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K53" s="12">
         <v>458</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M53" s="13">
         <v>468</v>
       </c>
       <c r="N53" s="29" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O53" s="29">
         <v>0</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q53" s="11">
         <v>0</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S53" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="T53" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U53" s="12">
         <v>0</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W53" s="13">
         <v>0</v>
       </c>
       <c r="X53" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y53" s="73">
+        <v>97</v>
+      </c>
+      <c r="Y53" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="113">
+      <c r="A54" s="105">
         <v>1920</v>
       </c>
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="97">
+      <c r="C54" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="90">
         <v>23</v>
       </c>
-      <c r="E54" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="100">
+      <c r="E54" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="92">
         <v>668.8</v>
       </c>
-      <c r="H54" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="I54" s="102">
+      <c r="H54" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="94">
         <v>664.35</v>
       </c>
-      <c r="J54" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="K54" s="104">
+      <c r="J54" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" s="96">
         <v>472</v>
       </c>
-      <c r="L54" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="M54" s="106">
-        <v>0</v>
-      </c>
-      <c r="N54" s="107" t="s">
-        <v>65</v>
-      </c>
-      <c r="O54" s="108">
-        <v>0</v>
-      </c>
-      <c r="P54" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q54" s="100">
-        <v>0</v>
-      </c>
-      <c r="R54" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="S54" s="102"/>
-      <c r="T54" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="U54" s="104">
-        <v>0</v>
-      </c>
-      <c r="V54" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="W54" s="106">
-        <v>0</v>
-      </c>
-      <c r="X54" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y54" s="110">
+      <c r="L54" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="98">
+        <v>0</v>
+      </c>
+      <c r="N54" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="100">
+        <v>0</v>
+      </c>
+      <c r="P54" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" s="92">
+        <v>0</v>
+      </c>
+      <c r="R54" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="U54" s="96">
+        <v>0</v>
+      </c>
+      <c r="V54" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="W54" s="98">
+        <v>0</v>
+      </c>
+      <c r="X54" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y54" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
+      <c r="A55" s="56">
         <v>1924</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="61">
+      <c r="C55" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="58">
         <v>1</v>
       </c>
-      <c r="E55" s="134"/>
-      <c r="F55" s="63">
+      <c r="E55" s="9">
+        <f>G55+I55+K55+M55+O55+Q55+S55+U55+W55+Y55</f>
+        <v>7710.7750000000005</v>
+      </c>
+      <c r="F55" s="60">
         <v>11.2</v>
       </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="66"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="69"/>
-      <c r="Y55" s="70"/>
+      <c r="G55" s="61">
+        <v>857.2</v>
+      </c>
+      <c r="H55" s="62">
+        <v>6.92</v>
+      </c>
+      <c r="I55" s="62">
+        <v>833.4</v>
+      </c>
+      <c r="J55" s="63">
+        <v>11.435</v>
+      </c>
+      <c r="K55" s="63">
+        <v>609.5</v>
+      </c>
+      <c r="L55" s="64">
+        <v>1.97</v>
+      </c>
+      <c r="M55" s="64">
+        <v>1056</v>
+      </c>
+      <c r="N55" s="65">
+        <v>53.2</v>
+      </c>
+      <c r="O55" s="65">
+        <v>812</v>
+      </c>
+      <c r="P55" s="60">
+        <v>16</v>
+      </c>
+      <c r="Q55" s="61">
+        <v>905</v>
+      </c>
+      <c r="R55" s="62">
+        <v>34.51</v>
+      </c>
+      <c r="S55" s="62">
+        <v>593.4</v>
+      </c>
+      <c r="T55" s="63">
+        <v>3.5</v>
+      </c>
+      <c r="U55" s="63">
+        <v>757</v>
+      </c>
+      <c r="V55" s="64">
+        <v>46.69</v>
+      </c>
+      <c r="W55" s="64">
+        <v>606.47500000000002</v>
+      </c>
+      <c r="X55" s="66">
+        <v>3.3564814814814811E-3</v>
+      </c>
+      <c r="Y55" s="67">
+        <v>680.8</v>
+      </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="71">
+      <c r="A56" s="68">
         <v>1924</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>101</v>
+      <c r="C56" s="124" t="s">
+        <v>100</v>
       </c>
       <c r="D56" s="17">
         <v>2</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="72"/>
+      <c r="E56" s="18">
+        <f>G56+I56+K56+M56+O56+Q56+S56+U56+W56+Y56</f>
+        <v>7350.8950000000004</v>
+      </c>
+      <c r="F56" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G56" s="19">
+        <v>762</v>
+      </c>
+      <c r="H56" s="14">
+        <v>6.92</v>
+      </c>
+      <c r="I56" s="14">
+        <v>833.4</v>
+      </c>
+      <c r="J56" s="20">
+        <v>13.04</v>
+      </c>
+      <c r="K56" s="20">
+        <v>770</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="M56" s="21">
+        <v>986</v>
+      </c>
+      <c r="N56" s="30">
+        <v>53</v>
+      </c>
+      <c r="O56" s="30">
+        <v>819.52</v>
+      </c>
+      <c r="P56" s="19">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>848</v>
+      </c>
+      <c r="R56" s="14">
+        <v>33.11</v>
+      </c>
+      <c r="S56" s="14">
+        <v>540.20000000000005</v>
+      </c>
+      <c r="T56" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="U56" s="20">
+        <v>919</v>
+      </c>
+      <c r="V56" s="21">
+        <v>42.09</v>
+      </c>
+      <c r="W56" s="21">
+        <v>479.97500000000002</v>
+      </c>
+      <c r="X56" s="32">
+        <v>3.9120370370370368E-3</v>
+      </c>
+      <c r="Y56" s="69">
+        <v>392.8</v>
+      </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="71">
+      <c r="A57" s="68">
         <v>1924</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="87">
+      <c r="C57" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="80">
         <v>3</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="73"/>
+      <c r="E57" s="9">
+        <f t="shared" ref="E57:E90" si="1">G57+I57+K57+M57+O57+Q57+S57+U57+W57+Y57</f>
+        <v>7329.36</v>
+      </c>
+      <c r="F57" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G57" s="11">
+        <v>762</v>
+      </c>
+      <c r="H57" s="5">
+        <v>6.96</v>
+      </c>
+      <c r="I57" s="5">
+        <v>843.2</v>
+      </c>
+      <c r="J57" s="12">
+        <v>12.27</v>
+      </c>
+      <c r="K57" s="12">
+        <v>693</v>
+      </c>
+      <c r="L57" s="13">
+        <v>1.75</v>
+      </c>
+      <c r="M57" s="13">
+        <v>748</v>
+      </c>
+      <c r="N57" s="29">
+        <v>54.4</v>
+      </c>
+      <c r="O57" s="29">
+        <v>766.88</v>
+      </c>
+      <c r="P57" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>753</v>
+      </c>
+      <c r="R57" s="5">
+        <v>36.795000000000002</v>
+      </c>
+      <c r="S57" s="5">
+        <v>680.23</v>
+      </c>
+      <c r="T57" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="U57" s="12">
+        <v>649</v>
+      </c>
+      <c r="V57" s="13">
+        <v>57.7</v>
+      </c>
+      <c r="W57" s="13">
+        <v>909.25</v>
+      </c>
+      <c r="X57" s="31">
+        <v>3.6574074074074074E-3</v>
+      </c>
+      <c r="Y57" s="70">
+        <v>524.79999999999995</v>
+      </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="71">
+      <c r="A58" s="68">
         <v>1924</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="17">
-        <v>4</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="72"/>
+      <c r="C58" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="18">
+        <f t="shared" si="1"/>
+        <v>6995.1750000000002</v>
+      </c>
+      <c r="F58" s="19">
+        <v>12</v>
+      </c>
+      <c r="G58" s="19">
+        <v>666.8</v>
+      </c>
+      <c r="H58" s="14">
+        <v>6.16</v>
+      </c>
+      <c r="I58" s="14">
+        <v>647.20000000000005</v>
+      </c>
+      <c r="J58" s="20">
+        <v>12.025</v>
+      </c>
+      <c r="K58" s="20">
+        <v>668.5</v>
+      </c>
+      <c r="L58" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M58" s="21">
+        <v>678</v>
+      </c>
+      <c r="N58" s="30">
+        <v>53.4</v>
+      </c>
+      <c r="O58" s="30">
+        <v>804.48</v>
+      </c>
+      <c r="P58" s="19">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>848</v>
+      </c>
+      <c r="R58" s="14">
+        <v>33.15</v>
+      </c>
+      <c r="S58" s="14">
+        <v>541.72</v>
+      </c>
+      <c r="T58" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="U58" s="20">
+        <v>595</v>
+      </c>
+      <c r="V58" s="21">
+        <v>53.65</v>
+      </c>
+      <c r="W58" s="21">
+        <v>787.875</v>
+      </c>
+      <c r="X58" s="32">
+        <v>3.2083333333333334E-3</v>
+      </c>
+      <c r="Y58" s="69">
+        <v>757.6</v>
+      </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="71">
+      <c r="A59" s="68">
         <v>1924</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="87">
+      <c r="C59" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="80">
         <v>5</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="73"/>
+      <c r="E59" s="9">
+        <f t="shared" si="1"/>
+        <v>6794.1425000000008</v>
+      </c>
+      <c r="F59" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G59" s="11">
+        <v>762</v>
+      </c>
+      <c r="H59" s="5">
+        <v>6.67</v>
+      </c>
+      <c r="I59" s="5">
+        <v>772.15</v>
+      </c>
+      <c r="J59" s="12">
+        <v>10.865</v>
+      </c>
+      <c r="K59" s="12">
+        <v>552.5</v>
+      </c>
+      <c r="L59" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="M59" s="13">
+        <v>818</v>
+      </c>
+      <c r="N59" s="29">
+        <v>56</v>
+      </c>
+      <c r="O59" s="29">
+        <v>706.72</v>
+      </c>
+      <c r="P59" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>848</v>
+      </c>
+      <c r="R59" s="5">
+        <v>30.83</v>
+      </c>
+      <c r="S59" s="5">
+        <v>453.56</v>
+      </c>
+      <c r="T59" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="U59" s="12">
+        <v>649</v>
+      </c>
+      <c r="V59" s="13">
+        <v>51.015000000000001</v>
+      </c>
+      <c r="W59" s="13">
+        <v>725.41250000000002</v>
+      </c>
+      <c r="X59" s="31">
+        <v>3.6921296296296298E-3</v>
+      </c>
+      <c r="Y59" s="70">
+        <v>506.8</v>
+      </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="68">
         <v>1924</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>71</v>
+      <c r="C60" s="124" t="s">
+        <v>70</v>
       </c>
       <c r="D60" s="17">
         <v>6</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="72"/>
+      <c r="E60" s="18">
+        <f t="shared" si="1"/>
+        <v>6743.5300000000016</v>
+      </c>
+      <c r="F60" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="G60" s="19">
+        <v>809.6</v>
+      </c>
+      <c r="H60" s="14">
+        <v>6.46</v>
+      </c>
+      <c r="I60" s="14">
+        <v>720.7</v>
+      </c>
+      <c r="J60" s="20">
+        <v>10.355</v>
+      </c>
+      <c r="K60" s="20">
+        <v>501.5</v>
+      </c>
+      <c r="L60" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M60" s="21">
+        <v>678</v>
+      </c>
+      <c r="N60" s="30">
+        <v>53.4</v>
+      </c>
+      <c r="O60" s="30">
+        <v>804.48</v>
+      </c>
+      <c r="P60" s="19">
+        <v>16.8</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>829</v>
+      </c>
+      <c r="R60" s="14">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="S60" s="14">
+        <v>570.6</v>
+      </c>
+      <c r="T60" s="20">
+        <v>3.4</v>
+      </c>
+      <c r="U60" s="20">
+        <v>703</v>
+      </c>
+      <c r="V60" s="21">
+        <v>44.82</v>
+      </c>
+      <c r="W60" s="21">
+        <v>555.04999999999995</v>
+      </c>
+      <c r="X60" s="32">
+        <v>3.5671296296296297E-3</v>
+      </c>
+      <c r="Y60" s="69">
+        <v>571.6</v>
+      </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="71">
+      <c r="A61" s="68">
         <v>1924</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D61" s="87">
+      <c r="C61" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="80">
         <v>7</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="73"/>
+      <c r="E61" s="9">
+        <f t="shared" si="1"/>
+        <v>6656.1600000000008</v>
+      </c>
+      <c r="F61" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G61" s="11">
+        <v>762</v>
+      </c>
+      <c r="H61" s="5">
+        <v>6.32</v>
+      </c>
+      <c r="I61" s="5">
+        <v>686.4</v>
+      </c>
+      <c r="J61" s="12">
+        <v>12.22</v>
+      </c>
+      <c r="K61" s="12">
+        <v>688</v>
+      </c>
+      <c r="L61" s="13">
+        <v>1.83</v>
+      </c>
+      <c r="M61" s="13">
+        <v>860</v>
+      </c>
+      <c r="N61" s="29">
+        <v>54.2</v>
+      </c>
+      <c r="O61" s="29">
+        <v>774.4</v>
+      </c>
+      <c r="P61" s="10">
+        <v>17.8</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>734</v>
+      </c>
+      <c r="R61" s="5">
+        <v>32.08</v>
+      </c>
+      <c r="S61" s="5">
+        <v>501.06</v>
+      </c>
+      <c r="T61" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="U61" s="12">
+        <v>541</v>
+      </c>
+      <c r="V61" s="13">
+        <v>47.2</v>
+      </c>
+      <c r="W61" s="13">
+        <v>620.5</v>
+      </c>
+      <c r="X61" s="31">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="Y61" s="70">
+        <v>488.8</v>
+      </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="71">
+      <c r="A62" s="68">
         <v>1924</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>106</v>
+      <c r="C62" s="124" t="s">
+        <v>105</v>
       </c>
       <c r="D62" s="17">
         <v>8</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="73"/>
+      <c r="E62" s="18">
+        <f t="shared" si="1"/>
+        <v>6618.3</v>
+      </c>
+      <c r="F62" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G62" s="11">
+        <v>762</v>
+      </c>
+      <c r="H62" s="5">
+        <v>5.94</v>
+      </c>
+      <c r="I62" s="5">
+        <v>593.29999999999995</v>
+      </c>
+      <c r="J62" s="12">
+        <v>11.01</v>
+      </c>
+      <c r="K62" s="12">
+        <v>567</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M62" s="13">
+        <v>538</v>
+      </c>
+      <c r="N62" s="29">
+        <v>54</v>
+      </c>
+      <c r="O62" s="29">
+        <v>781.92</v>
+      </c>
+      <c r="P62" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>620</v>
+      </c>
+      <c r="R62" s="5">
+        <v>35.094999999999999</v>
+      </c>
+      <c r="S62" s="5">
+        <v>615.63</v>
+      </c>
+      <c r="T62" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="U62" s="12">
+        <v>703</v>
+      </c>
+      <c r="V62" s="13">
+        <v>54.9</v>
+      </c>
+      <c r="W62" s="13">
+        <v>832.25</v>
+      </c>
+      <c r="X62" s="31">
+        <v>3.5023148148148144E-3</v>
+      </c>
+      <c r="Y62" s="70">
+        <v>605.20000000000005</v>
+      </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="71">
+      <c r="A63" s="68">
         <v>1924</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="87">
+      <c r="C63" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="80">
         <v>9</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="72"/>
+      <c r="E63" s="9">
+        <f>G63+I63+K63+M63+O63+Q63+S63+U63+W63+Y63</f>
+        <v>6548.5249999999996</v>
+      </c>
+      <c r="F63" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="G63" s="19">
+        <v>714.4</v>
+      </c>
+      <c r="H63" s="14">
+        <v>6.31</v>
+      </c>
+      <c r="I63" s="14">
+        <v>683.95</v>
+      </c>
+      <c r="J63" s="20">
+        <v>13.28</v>
+      </c>
+      <c r="K63" s="20">
+        <v>794</v>
+      </c>
+      <c r="L63" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M63" s="21">
+        <v>538</v>
+      </c>
+      <c r="N63" s="30">
+        <v>54.6</v>
+      </c>
+      <c r="O63" s="30">
+        <v>759.36</v>
+      </c>
+      <c r="P63" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>639</v>
+      </c>
+      <c r="R63" s="14">
+        <v>38.14</v>
+      </c>
+      <c r="S63" s="14">
+        <v>731.34</v>
+      </c>
+      <c r="T63" s="20">
+        <v>2.73</v>
+      </c>
+      <c r="U63" s="20">
+        <v>341.2</v>
+      </c>
+      <c r="V63" s="21">
+        <v>52.93</v>
+      </c>
+      <c r="W63" s="21">
+        <v>778.07500000000005</v>
+      </c>
+      <c r="X63" s="32">
+        <v>3.5717592592592593E-3</v>
+      </c>
+      <c r="Y63" s="69">
+        <v>569.20000000000005</v>
+      </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="71">
+      <c r="A64" s="68">
         <v>1924</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>108</v>
+      <c r="C64" s="124" t="s">
+        <v>107</v>
       </c>
       <c r="D64" s="17">
         <v>10</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="73"/>
+      <c r="E64" s="18">
+        <f t="shared" si="1"/>
+        <v>6509.61</v>
+      </c>
+      <c r="F64" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="G64" s="11">
+        <v>809.6</v>
+      </c>
+      <c r="H64" s="5">
+        <v>6</v>
+      </c>
+      <c r="I64" s="5">
+        <v>608</v>
+      </c>
+      <c r="J64" s="12">
+        <v>11.31</v>
+      </c>
+      <c r="K64" s="12">
+        <v>597</v>
+      </c>
+      <c r="L64" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M64" s="13">
+        <v>538</v>
+      </c>
+      <c r="N64" s="29">
+        <v>54.6</v>
+      </c>
+      <c r="O64" s="29">
+        <v>759.36</v>
+      </c>
+      <c r="P64" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>620</v>
+      </c>
+      <c r="R64" s="5">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="S64" s="5">
+        <v>741.6</v>
+      </c>
+      <c r="T64" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="U64" s="12">
+        <v>757</v>
+      </c>
+      <c r="V64" s="13">
+        <v>44.66</v>
+      </c>
+      <c r="W64" s="13">
+        <v>550.65</v>
+      </c>
+      <c r="X64" s="31">
+        <v>3.650462962962963E-3</v>
+      </c>
+      <c r="Y64" s="70">
+        <v>528.4</v>
+      </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="71">
+      <c r="A65" s="68">
         <v>1924</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="87">
+      <c r="C65" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="80">
         <v>11</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="72"/>
+      <c r="E65" s="9">
+        <f t="shared" si="1"/>
+        <v>6406.8825000000006</v>
+      </c>
+      <c r="F65" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G65" s="19">
+        <v>762</v>
+      </c>
+      <c r="H65" s="14">
+        <v>6.37</v>
+      </c>
+      <c r="I65" s="14">
+        <v>698.65</v>
+      </c>
+      <c r="J65" s="20">
+        <v>10.54</v>
+      </c>
+      <c r="K65" s="20">
+        <v>520</v>
+      </c>
+      <c r="L65" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="M65" s="21">
+        <v>608</v>
+      </c>
+      <c r="N65" s="30">
+        <v>55.8</v>
+      </c>
+      <c r="O65" s="30">
+        <v>714.24</v>
+      </c>
+      <c r="P65" s="19">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Q65" s="19">
+        <v>772</v>
+      </c>
+      <c r="R65" s="14">
+        <v>32.92</v>
+      </c>
+      <c r="S65" s="14">
+        <v>532.98</v>
+      </c>
+      <c r="T65" s="20">
+        <v>3.1</v>
+      </c>
+      <c r="U65" s="20">
+        <v>541</v>
+      </c>
+      <c r="V65" s="21">
+        <v>46.935000000000002</v>
+      </c>
+      <c r="W65" s="21">
+        <v>613.21249999999998</v>
+      </c>
+      <c r="X65" s="32">
+        <v>3.425925925925926E-3</v>
+      </c>
+      <c r="Y65" s="69">
+        <v>644.79999999999995</v>
+      </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="71">
+      <c r="A66" s="68">
         <v>1924</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>110</v>
+      <c r="C66" s="124" t="s">
+        <v>109</v>
       </c>
       <c r="D66" s="17">
         <v>12</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="73"/>
+      <c r="E66" s="18">
+        <f t="shared" si="1"/>
+        <v>6319.454999999999</v>
+      </c>
+      <c r="F66" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G66" s="11">
+        <v>714.4</v>
+      </c>
+      <c r="H66" s="5">
+        <v>5.68</v>
+      </c>
+      <c r="I66" s="5">
+        <v>529.6</v>
+      </c>
+      <c r="J66" s="12">
+        <v>11.875</v>
+      </c>
+      <c r="K66" s="12">
+        <v>653.5</v>
+      </c>
+      <c r="L66" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="M66" s="13">
+        <v>678</v>
+      </c>
+      <c r="N66" s="29">
+        <v>55.4</v>
+      </c>
+      <c r="O66" s="29">
+        <v>729.28</v>
+      </c>
+      <c r="P66" s="10">
+        <v>17.8</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>734</v>
+      </c>
+      <c r="R66" s="5">
+        <v>37.384999999999998</v>
+      </c>
+      <c r="S66" s="5">
+        <v>702.65</v>
+      </c>
+      <c r="T66" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="U66" s="12">
+        <v>433</v>
+      </c>
+      <c r="V66" s="13">
+        <v>46.23</v>
+      </c>
+      <c r="W66" s="13">
+        <v>593.82500000000005</v>
+      </c>
+      <c r="X66" s="31">
+        <v>3.6064814814814813E-3</v>
+      </c>
+      <c r="Y66" s="70">
+        <v>551.20000000000005</v>
+      </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="71">
+      <c r="A67" s="68">
         <v>1924</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="87">
+      <c r="C67" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="80">
         <v>13</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="72"/>
+      <c r="E67" s="9">
+        <f t="shared" si="1"/>
+        <v>6313.5249999999987</v>
+      </c>
+      <c r="F67" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="G67" s="19">
+        <v>809.6</v>
+      </c>
+      <c r="H67" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="I67" s="14">
+        <v>635.5</v>
+      </c>
+      <c r="J67" s="20">
+        <v>10.345000000000001</v>
+      </c>
+      <c r="K67" s="20">
+        <v>500.5</v>
+      </c>
+      <c r="L67" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M67" s="21">
+        <v>678</v>
+      </c>
+      <c r="N67" s="30">
+        <v>52</v>
+      </c>
+      <c r="O67" s="30">
+        <v>857.12</v>
+      </c>
+      <c r="P67" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>734</v>
+      </c>
+      <c r="R67" s="14">
+        <v>30.895</v>
+      </c>
+      <c r="S67" s="14">
+        <v>456.03</v>
+      </c>
+      <c r="T67" s="20">
+        <v>2.73</v>
+      </c>
+      <c r="U67" s="20">
+        <v>341.2</v>
+      </c>
+      <c r="V67" s="21">
+        <v>43.37</v>
+      </c>
+      <c r="W67" s="21">
+        <v>515.17499999999995</v>
+      </c>
+      <c r="X67" s="32">
+        <v>3.1527777777777782E-3</v>
+      </c>
+      <c r="Y67" s="69">
+        <v>786.4</v>
+      </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="71">
+      <c r="A68" s="68">
         <v>1924</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>112</v>
+      <c r="C68" s="124" t="s">
+        <v>111</v>
       </c>
       <c r="D68" s="17">
         <v>14</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="31"/>
-      <c r="Y68" s="73"/>
+      <c r="E68" s="18">
+        <f t="shared" si="1"/>
+        <v>5981.670000000001</v>
+      </c>
+      <c r="F68" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="G68" s="11">
+        <v>809.6</v>
+      </c>
+      <c r="H68" s="5">
+        <v>648</v>
+      </c>
+      <c r="I68" s="5">
+        <v>725.6</v>
+      </c>
+      <c r="J68" s="12">
+        <v>10.41</v>
+      </c>
+      <c r="K68" s="12">
+        <v>507</v>
+      </c>
+      <c r="L68" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="M68" s="13">
+        <v>678</v>
+      </c>
+      <c r="N68" s="29">
+        <v>54.2</v>
+      </c>
+      <c r="O68" s="29">
+        <v>774.4</v>
+      </c>
+      <c r="P68" s="10">
+        <v>17.8</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>734</v>
+      </c>
+      <c r="R68" s="5">
+        <v>32.25</v>
+      </c>
+      <c r="S68" s="5">
+        <v>507.52</v>
+      </c>
+      <c r="T68" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U68" s="12">
+        <v>233.2</v>
+      </c>
+      <c r="V68" s="13">
+        <v>43.02</v>
+      </c>
+      <c r="W68" s="13">
+        <v>505.55</v>
+      </c>
+      <c r="X68" s="31">
+        <v>3.6921296296296298E-3</v>
+      </c>
+      <c r="Y68" s="70">
+        <v>506.8</v>
+      </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="71">
+      <c r="A69" s="68">
         <v>1924</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="87">
+      <c r="C69" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="80">
         <v>15</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="72"/>
+      <c r="E69" s="9">
+        <f t="shared" si="1"/>
+        <v>5961.5925000000007</v>
+      </c>
+      <c r="F69" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="G69" s="19">
+        <v>809.6</v>
+      </c>
+      <c r="H69" s="14">
+        <v>6.12</v>
+      </c>
+      <c r="I69" s="14">
+        <v>637.4</v>
+      </c>
+      <c r="J69" s="20">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="K69" s="20">
+        <v>437</v>
+      </c>
+      <c r="L69" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M69" s="21">
+        <v>538</v>
+      </c>
+      <c r="N69" s="30">
+        <v>54</v>
+      </c>
+      <c r="O69" s="30">
+        <v>781.92</v>
+      </c>
+      <c r="P69" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>677</v>
+      </c>
+      <c r="R69" s="14">
+        <v>34.78</v>
+      </c>
+      <c r="S69" s="14">
+        <v>603.66</v>
+      </c>
+      <c r="T69" s="20">
+        <v>2.9</v>
+      </c>
+      <c r="U69" s="20">
+        <v>433</v>
+      </c>
+      <c r="V69" s="21">
+        <v>39.414999999999999</v>
+      </c>
+      <c r="W69" s="21">
+        <v>406.41250000000002</v>
+      </c>
+      <c r="X69" s="32">
+        <v>3.4398148148148144E-3</v>
+      </c>
+      <c r="Y69" s="69">
+        <v>637.6</v>
+      </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="71">
+      <c r="A70" s="68">
         <v>1924</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>113</v>
+      <c r="C70" s="124" t="s">
+        <v>112</v>
       </c>
       <c r="D70" s="17">
         <v>16</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="73"/>
+      <c r="E70" s="18">
+        <f t="shared" si="1"/>
+        <v>5899.1049999999996</v>
+      </c>
+      <c r="F70" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G70" s="11">
+        <v>714.4</v>
+      </c>
+      <c r="H70" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="I70" s="5">
+        <v>728.05</v>
+      </c>
+      <c r="J70" s="12">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="K70" s="12">
+        <v>429</v>
+      </c>
+      <c r="L70" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="M70" s="13">
+        <v>608</v>
+      </c>
+      <c r="N70" s="29">
+        <v>55.4</v>
+      </c>
+      <c r="O70" s="29">
+        <v>729.28</v>
+      </c>
+      <c r="P70" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>810</v>
+      </c>
+      <c r="R70" s="5">
+        <v>28.46</v>
+      </c>
+      <c r="S70" s="5">
+        <v>363.5</v>
+      </c>
+      <c r="T70" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="U70" s="12">
+        <v>649</v>
+      </c>
+      <c r="V70" s="13">
+        <v>40.69</v>
+      </c>
+      <c r="W70" s="13">
+        <v>441.47500000000002</v>
+      </c>
+      <c r="X70" s="31">
+        <v>3.8472222222222224E-3</v>
+      </c>
+      <c r="Y70" s="70">
+        <v>426.4</v>
+      </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="71">
+      <c r="A71" s="68">
         <v>1924</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="87">
+      <c r="C71" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="80">
         <v>17</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="72"/>
+      <c r="E71" s="9">
+        <f t="shared" si="1"/>
+        <v>5866.6699999999992</v>
+      </c>
+      <c r="F71" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="G71" s="19">
+        <v>714.4</v>
+      </c>
+      <c r="H71" s="14">
+        <v>6.31</v>
+      </c>
+      <c r="I71" s="14">
+        <v>683.95</v>
+      </c>
+      <c r="J71" s="20">
+        <v>8.74</v>
+      </c>
+      <c r="K71" s="20">
+        <v>340</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M71" s="21">
+        <v>678</v>
+      </c>
+      <c r="N71" s="30">
+        <v>51.8</v>
+      </c>
+      <c r="O71" s="30">
+        <v>864.64</v>
+      </c>
+      <c r="P71" s="19">
+        <v>16.8</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>829</v>
+      </c>
+      <c r="R71" s="14">
+        <v>23.87</v>
+      </c>
+      <c r="S71" s="14">
+        <v>189.08</v>
+      </c>
+      <c r="T71" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="U71" s="20">
+        <v>595</v>
+      </c>
+      <c r="V71" s="21">
+        <v>32.28</v>
+      </c>
+      <c r="W71" s="21">
+        <v>210.2</v>
+      </c>
+      <c r="X71" s="32">
+        <v>3.1990740740740742E-3</v>
+      </c>
+      <c r="Y71" s="69">
+        <v>762.4</v>
+      </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="71">
+      <c r="A72" s="68">
         <v>1924</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>115</v>
+      <c r="C72" s="124" t="s">
+        <v>114</v>
       </c>
       <c r="D72" s="17">
         <v>18</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="73"/>
+      <c r="E72" s="18">
+        <f t="shared" si="1"/>
+        <v>5517.9250000000011</v>
+      </c>
+      <c r="F72" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G72" s="11">
+        <v>714.4</v>
+      </c>
+      <c r="H72" s="5">
+        <v>6.17</v>
+      </c>
+      <c r="I72" s="5">
+        <v>649.65</v>
+      </c>
+      <c r="J72" s="12">
+        <v>10.56</v>
+      </c>
+      <c r="K72" s="12">
+        <v>522</v>
+      </c>
+      <c r="L72" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M72" s="13">
+        <v>398</v>
+      </c>
+      <c r="N72" s="29">
+        <v>55</v>
+      </c>
+      <c r="O72" s="29">
+        <v>744.32</v>
+      </c>
+      <c r="P72" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>487</v>
+      </c>
+      <c r="R72" s="5">
+        <v>25.895</v>
+      </c>
+      <c r="S72" s="5">
+        <v>266.02999999999997</v>
+      </c>
+      <c r="T72" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="U72" s="12">
+        <v>649</v>
+      </c>
+      <c r="V72" s="13">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="W72" s="13">
+        <v>328.72500000000002</v>
+      </c>
+      <c r="X72" s="31">
+        <v>3.2060185185185191E-3</v>
+      </c>
+      <c r="Y72" s="70">
+        <v>758.8</v>
+      </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="71">
+      <c r="A73" s="68">
         <v>1924</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D73" s="87">
+      <c r="C73" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="80">
         <v>19</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="72"/>
+      <c r="E73" s="9">
+        <f t="shared" si="1"/>
+        <v>5426.68</v>
+      </c>
+      <c r="F73" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="G73" s="19">
+        <v>714.4</v>
+      </c>
+      <c r="H73" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="I73" s="14">
+        <v>657</v>
+      </c>
+      <c r="J73" s="20">
+        <v>9.6150000000000002</v>
+      </c>
+      <c r="K73" s="20">
+        <v>427.5</v>
+      </c>
+      <c r="L73" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M73" s="21">
+        <v>678</v>
+      </c>
+      <c r="N73" s="30">
+        <v>55.4</v>
+      </c>
+      <c r="O73" s="30">
+        <v>729.28</v>
+      </c>
+      <c r="P73" s="19">
+        <v>16.8</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>829</v>
+      </c>
+      <c r="R73" s="14">
+        <v>25.06</v>
+      </c>
+      <c r="S73" s="14">
+        <v>234.3</v>
+      </c>
+      <c r="T73" s="20">
+        <v>2.82</v>
+      </c>
+      <c r="U73" s="20">
+        <v>389.8</v>
+      </c>
+      <c r="V73" s="21">
+        <v>39</v>
+      </c>
+      <c r="W73" s="21">
+        <v>395</v>
+      </c>
+      <c r="X73" s="32">
+        <v>3.9513888888888888E-3</v>
+      </c>
+      <c r="Y73" s="69">
+        <v>372.4</v>
+      </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="71">
+      <c r="A74" s="68">
         <v>1924</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>117</v>
+      <c r="C74" s="124" t="s">
+        <v>116</v>
       </c>
       <c r="D74" s="17">
         <v>20</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="73"/>
+      <c r="E74" s="18">
+        <f t="shared" si="1"/>
+        <v>5347.54</v>
+      </c>
+      <c r="F74" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G74" s="11">
+        <v>762</v>
+      </c>
+      <c r="H74" s="5">
+        <v>6.52</v>
+      </c>
+      <c r="I74" s="5">
+        <v>735.4</v>
+      </c>
+      <c r="J74" s="12">
+        <v>11.295</v>
+      </c>
+      <c r="K74" s="12">
+        <v>595.5</v>
+      </c>
+      <c r="L74" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M74" s="13">
+        <v>538</v>
+      </c>
+      <c r="N74" s="29">
+        <v>53</v>
+      </c>
+      <c r="O74" s="29">
+        <v>819.52</v>
+      </c>
+      <c r="P74" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>715</v>
+      </c>
+      <c r="R74" s="5">
+        <v>27.65</v>
+      </c>
+      <c r="S74" s="5">
+        <v>332.72</v>
+      </c>
+      <c r="T74" s="12">
+        <v>0</v>
+      </c>
+      <c r="U74" s="12">
+        <v>0</v>
+      </c>
+      <c r="V74" s="13">
+        <v>30.68</v>
+      </c>
+      <c r="W74" s="13">
+        <v>166.2</v>
+      </c>
+      <c r="X74" s="31">
+        <v>3.351851851851852E-3</v>
+      </c>
+      <c r="Y74" s="70">
+        <v>683.2</v>
+      </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="71">
+      <c r="A75" s="68">
         <v>1924</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="87">
+      <c r="C75" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="80">
         <v>21</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="72"/>
+      <c r="E75" s="9">
+        <f t="shared" si="1"/>
+        <v>5292.76</v>
+      </c>
+      <c r="F75" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="G75" s="19">
+        <v>714.4</v>
+      </c>
+      <c r="H75" s="14">
+        <v>6.27</v>
+      </c>
+      <c r="I75" s="14">
+        <v>674.15</v>
+      </c>
+      <c r="J75" s="20">
+        <v>9.5250000000000004</v>
+      </c>
+      <c r="K75" s="20">
+        <v>418.5</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M75" s="21">
+        <v>538</v>
+      </c>
+      <c r="N75" s="30">
+        <v>53.6</v>
+      </c>
+      <c r="O75" s="30">
+        <v>796.96</v>
+      </c>
+      <c r="P75" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>677</v>
+      </c>
+      <c r="R75" s="14">
+        <v>0</v>
+      </c>
+      <c r="S75" s="14">
+        <v>0</v>
+      </c>
+      <c r="T75" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="U75" s="20">
+        <v>379</v>
+      </c>
+      <c r="V75" s="21">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="W75" s="21">
+        <v>377.95</v>
+      </c>
+      <c r="X75" s="32">
+        <v>3.2870370370370367E-3</v>
+      </c>
+      <c r="Y75" s="69">
+        <v>716.8</v>
+      </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="71">
+      <c r="A76" s="68">
         <v>1924</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>119</v>
+      <c r="C76" s="124" t="s">
+        <v>118</v>
       </c>
       <c r="D76" s="17">
         <v>22</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="73"/>
+      <c r="E76" s="18">
+        <f t="shared" si="1"/>
+        <v>5248.33</v>
+      </c>
+      <c r="F76" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G76" s="11">
+        <v>762</v>
+      </c>
+      <c r="H76" s="5">
+        <v>6.42</v>
+      </c>
+      <c r="I76" s="5">
+        <v>710.9</v>
+      </c>
+      <c r="J76" s="12">
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="K76" s="12">
+        <v>421.5</v>
+      </c>
+      <c r="L76" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M76" s="13">
+        <v>398</v>
+      </c>
+      <c r="N76" s="29">
+        <v>51.4</v>
+      </c>
+      <c r="O76" s="29">
+        <v>879.68</v>
+      </c>
+      <c r="P76" s="10">
+        <v>17.2</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>791</v>
+      </c>
+      <c r="R76" s="5">
+        <v>23.61</v>
+      </c>
+      <c r="S76" s="5">
+        <v>179.2</v>
+      </c>
+      <c r="T76" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U76" s="12">
+        <v>109</v>
+      </c>
+      <c r="V76" s="13">
+        <v>35.22</v>
+      </c>
+      <c r="W76" s="13">
+        <v>291.05</v>
+      </c>
+      <c r="X76" s="31">
+        <v>3.3078703703703707E-3</v>
+      </c>
+      <c r="Y76" s="70">
+        <v>706</v>
+      </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="71">
+      <c r="A77" s="68">
         <v>1924</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="87">
+      <c r="C77" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="80">
         <v>23</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="72"/>
+      <c r="E77" s="9">
+        <f t="shared" si="1"/>
+        <v>5207.8949999999995</v>
+      </c>
+      <c r="F77" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G77" s="19">
+        <v>762</v>
+      </c>
+      <c r="H77" s="14">
+        <v>6.3849999999999998</v>
+      </c>
+      <c r="I77" s="14">
+        <v>702.32500000000005</v>
+      </c>
+      <c r="J77" s="20">
+        <v>8.65</v>
+      </c>
+      <c r="K77" s="20">
+        <v>331</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M77" s="21">
+        <v>538</v>
+      </c>
+      <c r="N77" s="30">
+        <v>53</v>
+      </c>
+      <c r="O77" s="30">
+        <v>819.52</v>
+      </c>
+      <c r="P77" s="19">
+        <v>19</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>620</v>
+      </c>
+      <c r="R77" s="14">
+        <v>21.885000000000002</v>
+      </c>
+      <c r="S77" s="14">
+        <v>113.65</v>
+      </c>
+      <c r="T77" s="20">
+        <v>3.2</v>
+      </c>
+      <c r="U77" s="20">
+        <v>595</v>
+      </c>
+      <c r="V77" s="21">
+        <v>11.64</v>
+      </c>
+      <c r="W77" s="21">
+        <v>0</v>
+      </c>
+      <c r="X77" s="32">
+        <v>3.2685185185185191E-3</v>
+      </c>
+      <c r="Y77" s="69">
+        <v>726.4</v>
+      </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="71">
+      <c r="A78" s="68">
         <v>1924</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>121</v>
+      <c r="C78" s="124" t="s">
+        <v>120</v>
       </c>
       <c r="D78" s="17">
         <v>24</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="73"/>
+      <c r="E78" s="18">
+        <f t="shared" si="1"/>
+        <v>5189.16</v>
+      </c>
+      <c r="F78" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="G78" s="11">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="H78" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="I78" s="5">
+        <v>534.5</v>
+      </c>
+      <c r="J78" s="12">
+        <v>9.8949999999999996</v>
+      </c>
+      <c r="K78" s="12">
+        <v>455.5</v>
+      </c>
+      <c r="L78" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M78" s="13">
+        <v>538</v>
+      </c>
+      <c r="N78" s="29">
+        <v>57.6</v>
+      </c>
+      <c r="O78" s="29">
+        <v>646.55999999999995</v>
+      </c>
+      <c r="P78" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>601</v>
+      </c>
+      <c r="R78" s="5">
+        <v>30.56</v>
+      </c>
+      <c r="S78" s="5">
+        <v>443.3</v>
+      </c>
+      <c r="T78" s="12">
+        <v>2.92</v>
+      </c>
+      <c r="U78" s="12">
+        <v>443.8</v>
+      </c>
+      <c r="V78" s="13">
+        <v>40.64</v>
+      </c>
+      <c r="W78" s="13">
+        <v>440.1</v>
+      </c>
+      <c r="X78" s="31">
+        <v>3.7685185185185187E-3</v>
+      </c>
+      <c r="Y78" s="70">
+        <v>467.2</v>
+      </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="71">
+      <c r="A79" s="68">
         <v>1924</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="87">
+      <c r="C79" s="129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="80">
         <v>25</v>
       </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="72"/>
+      <c r="E79" s="9">
+        <f t="shared" si="1"/>
+        <v>5148.1049999999996</v>
+      </c>
+      <c r="F79" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G79" s="19">
+        <v>762</v>
+      </c>
+      <c r="H79" s="14">
+        <v>5.98</v>
+      </c>
+      <c r="I79" s="14">
+        <v>603.1</v>
+      </c>
+      <c r="J79" s="20">
+        <v>8.7650000000000006</v>
+      </c>
+      <c r="K79" s="20">
+        <v>342.5</v>
+      </c>
+      <c r="L79" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="M79" s="21">
+        <v>608</v>
+      </c>
+      <c r="N79" s="30">
+        <v>55.2</v>
+      </c>
+      <c r="O79" s="30">
+        <v>736.8</v>
+      </c>
+      <c r="P79" s="19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>753</v>
+      </c>
+      <c r="R79" s="14">
+        <v>24.32</v>
+      </c>
+      <c r="S79" s="14">
+        <v>206.18</v>
+      </c>
+      <c r="T79" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="U79" s="20">
+        <v>271</v>
+      </c>
+      <c r="V79" s="21">
+        <v>36.11</v>
+      </c>
+      <c r="W79" s="21">
+        <v>315.52499999999998</v>
+      </c>
+      <c r="X79" s="32">
+        <v>3.6087962962962961E-3</v>
+      </c>
+      <c r="Y79" s="69">
+        <v>550</v>
+      </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="71">
+      <c r="A80" s="68">
         <v>1924</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>123</v>
+      <c r="C80" s="124" t="s">
+        <v>122</v>
       </c>
       <c r="D80" s="17">
         <v>26</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="31"/>
-      <c r="Y80" s="73"/>
+      <c r="E80" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G80" s="11">
+        <v>714.4</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="12">
+        <v>0</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M80" s="13">
+        <v>0</v>
+      </c>
+      <c r="N80" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O80" s="29">
+        <v>0</v>
+      </c>
+      <c r="P80" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>0</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0</v>
+      </c>
+      <c r="T80" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U80" s="12">
+        <v>0</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W80" s="13">
+        <v>0</v>
+      </c>
+      <c r="X80" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y80" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="71">
+      <c r="A81" s="68">
         <v>1924</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="87">
+      <c r="C81" s="129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="80">
         <v>27</v>
       </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="72"/>
+      <c r="E81" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="G81" s="19">
+        <v>714.4</v>
+      </c>
+      <c r="H81" s="14">
+        <v>6.03</v>
+      </c>
+      <c r="I81" s="14">
+        <v>615.35</v>
+      </c>
+      <c r="J81" s="20">
+        <v>9.7349999999999994</v>
+      </c>
+      <c r="K81" s="20">
+        <v>439.5</v>
+      </c>
+      <c r="L81" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="M81" s="21">
+        <v>748</v>
+      </c>
+      <c r="N81" s="30">
+        <v>52</v>
+      </c>
+      <c r="O81" s="30">
+        <v>857.12</v>
+      </c>
+      <c r="P81" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>0</v>
+      </c>
+      <c r="R81" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S81" s="14">
+        <v>0</v>
+      </c>
+      <c r="T81" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U81" s="20">
+        <v>0</v>
+      </c>
+      <c r="V81" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W81" s="21">
+        <v>0</v>
+      </c>
+      <c r="X81" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y81" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="71">
+      <c r="A82" s="68">
         <v>1924</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>125</v>
+      <c r="C82" s="124" t="s">
+        <v>124</v>
       </c>
       <c r="D82" s="17">
         <v>28</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="73"/>
+      <c r="E82" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="G82" s="11">
+        <v>714.4</v>
+      </c>
+      <c r="H82" s="5">
+        <v>6.45</v>
+      </c>
+      <c r="I82" s="5">
+        <v>718.25</v>
+      </c>
+      <c r="J82" s="12">
+        <v>10.9</v>
+      </c>
+      <c r="K82" s="12">
+        <v>556</v>
+      </c>
+      <c r="L82" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="M82" s="13">
+        <v>678</v>
+      </c>
+      <c r="N82" s="29">
+        <v>55.8</v>
+      </c>
+      <c r="O82" s="29">
+        <v>714.24</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>0</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0</v>
+      </c>
+      <c r="T82" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U82" s="12">
+        <v>0</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W82" s="13">
+        <v>0</v>
+      </c>
+      <c r="X82" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y82" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="71">
+      <c r="A83" s="68">
         <v>1924</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="87">
+      <c r="C83" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="80">
         <v>29</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="32"/>
-      <c r="Y83" s="72"/>
+      <c r="E83" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F83" s="19">
+        <v>12</v>
+      </c>
+      <c r="G83" s="19">
+        <v>666.8</v>
+      </c>
+      <c r="H83" s="14">
+        <v>6.18</v>
+      </c>
+      <c r="I83" s="14">
+        <v>652.1</v>
+      </c>
+      <c r="J83" s="20">
+        <v>11.414999999999999</v>
+      </c>
+      <c r="K83" s="20">
+        <v>607.5</v>
+      </c>
+      <c r="L83" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="M83" s="21">
+        <v>608</v>
+      </c>
+      <c r="N83" s="30">
+        <v>54.6</v>
+      </c>
+      <c r="O83" s="30">
+        <v>759.36</v>
+      </c>
+      <c r="P83" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" s="19">
+        <v>0</v>
+      </c>
+      <c r="R83" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S83" s="14">
+        <v>0</v>
+      </c>
+      <c r="T83" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U83" s="20">
+        <v>0</v>
+      </c>
+      <c r="V83" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" s="21">
+        <v>0</v>
+      </c>
+      <c r="X83" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y83" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="71">
+      <c r="A84" s="68">
         <v>1924</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>127</v>
+      <c r="C84" s="124" t="s">
+        <v>126</v>
       </c>
       <c r="D84" s="17">
         <v>30</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="73"/>
+      <c r="E84" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="10">
+        <v>12.6</v>
+      </c>
+      <c r="G84" s="11">
+        <v>524</v>
+      </c>
+      <c r="H84" s="5">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="I84" s="5">
+        <v>437.72500000000002</v>
+      </c>
+      <c r="J84" s="12">
+        <v>10.95</v>
+      </c>
+      <c r="K84" s="12">
+        <v>561</v>
+      </c>
+      <c r="L84" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M84" s="13">
+        <v>538</v>
+      </c>
+      <c r="N84" s="29">
+        <v>62.2</v>
+      </c>
+      <c r="O84" s="29">
+        <v>473.6</v>
+      </c>
+      <c r="P84" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q84" s="11">
+        <v>0</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S84" s="5">
+        <v>0</v>
+      </c>
+      <c r="T84" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U84" s="12">
+        <v>0</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W84" s="13">
+        <v>0</v>
+      </c>
+      <c r="X84" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y84" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="71">
+      <c r="A85" s="68">
         <v>1924</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="87">
+      <c r="C85" s="129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="80">
         <v>31</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="X85" s="32"/>
-      <c r="Y85" s="72"/>
+      <c r="E85" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="G85" s="19">
+        <v>762</v>
+      </c>
+      <c r="H85" s="14">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="I85" s="14">
+        <v>650.875</v>
+      </c>
+      <c r="J85" s="20">
+        <v>10</v>
+      </c>
+      <c r="K85" s="20">
+        <v>466</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M85" s="21">
+        <v>0</v>
+      </c>
+      <c r="N85" s="30">
+        <v>55.2</v>
+      </c>
+      <c r="O85" s="30">
+        <v>736.8</v>
+      </c>
+      <c r="P85" s="19">
+        <v>17</v>
+      </c>
+      <c r="Q85" s="19">
+        <v>810</v>
+      </c>
+      <c r="R85" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S85" s="14">
+        <v>0</v>
+      </c>
+      <c r="T85" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U85" s="20">
+        <v>0</v>
+      </c>
+      <c r="V85" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W85" s="21">
+        <v>0</v>
+      </c>
+      <c r="X85" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y85" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="71">
+      <c r="A86" s="68">
         <v>1924</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>129</v>
+      <c r="C86" s="124" t="s">
+        <v>128</v>
       </c>
       <c r="D86" s="17">
         <v>32</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="73"/>
+      <c r="E86" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="G86" s="11">
+        <v>619.20000000000005</v>
+      </c>
+      <c r="H86" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="I86" s="5">
+        <v>706</v>
+      </c>
+      <c r="J86" s="12">
+        <v>10.095000000000001</v>
+      </c>
+      <c r="K86" s="12">
+        <v>475.5</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M86" s="13">
+        <v>0</v>
+      </c>
+      <c r="N86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" s="29">
+        <v>0</v>
+      </c>
+      <c r="P86" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q86" s="11">
+        <v>0</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0</v>
+      </c>
+      <c r="T86" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U86" s="12">
+        <v>0</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W86" s="13">
+        <v>0</v>
+      </c>
+      <c r="X86" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y86" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="71">
+      <c r="A87" s="68">
         <v>1924</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="87">
+      <c r="C87" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="80">
         <v>33</v>
       </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="72"/>
+      <c r="E87" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="G87" s="19">
+        <v>809.6</v>
+      </c>
+      <c r="H87" s="14">
+        <v>6.08</v>
+      </c>
+      <c r="I87" s="14">
+        <v>627.6</v>
+      </c>
+      <c r="J87" s="20">
+        <v>10.335000000000001</v>
+      </c>
+      <c r="K87" s="20">
+        <v>499.5</v>
+      </c>
+      <c r="L87" s="21">
+        <v>1.65</v>
+      </c>
+      <c r="M87" s="21">
+        <v>608</v>
+      </c>
+      <c r="N87" s="30">
+        <v>56.8</v>
+      </c>
+      <c r="O87" s="30">
+        <v>676.64</v>
+      </c>
+      <c r="P87" s="19">
+        <v>17.2</v>
+      </c>
+      <c r="Q87" s="19">
+        <v>791</v>
+      </c>
+      <c r="R87" s="14">
+        <v>32.04</v>
+      </c>
+      <c r="S87" s="14">
+        <v>499.54</v>
+      </c>
+      <c r="T87" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="U87" s="20">
+        <v>379</v>
+      </c>
+      <c r="V87" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W87" s="21">
+        <v>0</v>
+      </c>
+      <c r="X87" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y87" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="71">
+      <c r="A88" s="68">
         <v>1924</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>131</v>
+      <c r="C88" s="124" t="s">
+        <v>130</v>
       </c>
       <c r="D88" s="17">
         <v>34</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="31"/>
-      <c r="Y88" s="73"/>
+      <c r="E88" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="G88" s="11">
+        <v>762</v>
+      </c>
+      <c r="H88" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="I88" s="5">
+        <v>706</v>
+      </c>
+      <c r="J88" s="12">
+        <v>10.555</v>
+      </c>
+      <c r="K88" s="12">
+        <v>521.5</v>
+      </c>
+      <c r="L88" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="M88" s="13">
+        <v>538</v>
+      </c>
+      <c r="N88" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O88" s="29">
+        <v>0</v>
+      </c>
+      <c r="P88" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>0</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0</v>
+      </c>
+      <c r="T88" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U88" s="12">
+        <v>0</v>
+      </c>
+      <c r="V88" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W88" s="13">
+        <v>0</v>
+      </c>
+      <c r="X88" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y88" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="71">
+      <c r="A89" s="68">
         <v>1924</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="80">
+        <v>35</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="G89" s="19">
+        <v>476.4</v>
+      </c>
+      <c r="H89" s="14">
+        <v>5.17</v>
+      </c>
+      <c r="I89" s="14">
+        <v>404.65</v>
+      </c>
+      <c r="J89" s="20">
+        <v>10.86</v>
+      </c>
+      <c r="K89" s="20">
+        <v>552</v>
+      </c>
+      <c r="L89" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="M89" s="21">
+        <v>258</v>
+      </c>
+      <c r="N89" s="30">
+        <v>59</v>
+      </c>
+      <c r="O89" s="30">
+        <v>593.91999999999996</v>
+      </c>
+      <c r="P89" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q89" s="19">
+        <v>0</v>
+      </c>
+      <c r="R89" s="14">
+        <v>33.085000000000001</v>
+      </c>
+      <c r="S89" s="14">
+        <v>539.25</v>
+      </c>
+      <c r="T89" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U89" s="20">
+        <v>0</v>
+      </c>
+      <c r="V89" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W89" s="21">
+        <v>0</v>
+      </c>
+      <c r="X89" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y89" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="71">
+        <v>1924</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="D89" s="87">
-        <v>35</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="21"/>
-      <c r="W89" s="21"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="72"/>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="74">
-        <v>1924</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="97">
+      <c r="D90" s="90">
         <v>36</v>
       </c>
-      <c r="E90" s="77"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="82"/>
-      <c r="M90" s="82"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="78"/>
-      <c r="Q90" s="79"/>
-      <c r="R90" s="80"/>
-      <c r="S90" s="80"/>
-      <c r="T90" s="81"/>
-      <c r="U90" s="81"/>
-      <c r="V90" s="82"/>
-      <c r="W90" s="82"/>
-      <c r="X90" s="84"/>
-      <c r="Y90" s="85"/>
+      <c r="E90" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="73">
+        <v>12</v>
+      </c>
+      <c r="G90" s="74">
+        <v>666.8</v>
+      </c>
+      <c r="H90" s="75">
+        <v>6.5</v>
+      </c>
+      <c r="I90" s="75">
+        <v>730.5</v>
+      </c>
+      <c r="J90" s="76">
+        <v>13.08</v>
+      </c>
+      <c r="K90" s="76">
+        <v>774</v>
+      </c>
+      <c r="L90" s="77">
+        <v>1.8</v>
+      </c>
+      <c r="M90" s="77">
+        <v>818</v>
+      </c>
+      <c r="N90" s="78">
+        <v>54</v>
+      </c>
+      <c r="O90" s="78">
+        <v>781.92</v>
+      </c>
+      <c r="P90" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q90" s="74">
+        <v>0</v>
+      </c>
+      <c r="R90" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="S90" s="75">
+        <v>0</v>
+      </c>
+      <c r="T90" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="U90" s="76">
+        <v>0</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W90" s="77">
+        <v>0</v>
+      </c>
+      <c r="X90" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y90" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="B91" s="133"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="53"/>
-      <c r="T91" s="54"/>
-      <c r="U91" s="54"/>
-      <c r="V91" s="55"/>
-      <c r="W91" s="55"/>
-      <c r="X91" s="57"/>
-      <c r="Y91" s="56"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="120"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="53"/>
+      <c r="M91" s="53"/>
+      <c r="N91" s="54"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="52"/>
+      <c r="V91" s="53"/>
+      <c r="W91" s="53"/>
+      <c r="X91" s="55"/>
+      <c r="Y91" s="54"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
@@ -10119,19 +11686,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="37"/>
+    <col min="4" max="4" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10161,11 +11728,11 @@
         <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="27"/>
@@ -10176,11 +11743,11 @@
         <v>28</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="36" t="s">
-        <v>86</v>
+      <c r="D4" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="24"/>
@@ -10191,11 +11758,11 @@
         <v>29</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="27"/>
@@ -10206,11 +11773,11 @@
         <v>30</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="36" t="s">
-        <v>86</v>
+      <c r="D6" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="24"/>
@@ -10221,27 +11788,27 @@
         <v>31</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="36" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="24"/>
@@ -10252,11 +11819,11 @@
         <v>33</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="27"/>
@@ -10267,11 +11834,11 @@
         <v>34</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="36" t="s">
-        <v>86</v>
+      <c r="D10" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="24"/>
@@ -10282,11 +11849,11 @@
         <v>35</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="27"/>
@@ -10297,11 +11864,11 @@
         <v>36</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="36" t="s">
-        <v>86</v>
+      <c r="D12" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="24"/>
@@ -10312,11 +11879,11 @@
         <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="27"/>
@@ -10327,11 +11894,11 @@
         <v>38</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="36" t="s">
-        <v>86</v>
+      <c r="D14" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="24"/>
@@ -10342,11 +11909,11 @@
         <v>39</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="27"/>
@@ -10357,11 +11924,11 @@
         <v>40</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="36" t="s">
-        <v>86</v>
+      <c r="D16" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="24"/>
@@ -10372,11 +11939,11 @@
         <v>41</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="27"/>
@@ -10387,11 +11954,11 @@
         <v>42</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="34" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="36" t="s">
-        <v>86</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="24"/>
@@ -10402,11 +11969,11 @@
         <v>43</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="27"/>
@@ -10417,11 +11984,11 @@
         <v>44</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="36" t="s">
-        <v>86</v>
+      <c r="D20" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="24"/>
@@ -10432,11 +11999,11 @@
         <v>45</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="27"/>
@@ -10447,11 +12014,11 @@
         <v>46</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="36" t="s">
-        <v>86</v>
+      <c r="D22" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="24"/>
@@ -10462,11 +12029,11 @@
         <v>47</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="27"/>
@@ -10477,11 +12044,11 @@
         <v>48</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="36" t="s">
-        <v>86</v>
+      <c r="D24" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="24"/>
@@ -10492,11 +12059,11 @@
         <v>49</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="27"/>
@@ -10507,11 +12074,11 @@
         <v>50</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="36" t="s">
-        <v>86</v>
+      <c r="D26" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="24"/>
@@ -10522,11 +12089,11 @@
         <v>51</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="27"/>
@@ -10537,11 +12104,11 @@
         <v>52</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="36" t="s">
-        <v>86</v>
+      <c r="D28" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="24"/>
@@ -10552,11 +12119,11 @@
         <v>53</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="27"/>
@@ -10567,11 +12134,11 @@
         <v>54</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="36" t="s">
-        <v>86</v>
+      <c r="D30" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="24"/>
@@ -10582,11 +12149,11 @@
         <v>55</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="27"/>
@@ -10596,8 +12163,8 @@
       <c r="A32" s="16"/>
       <c r="B32" s="21"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="36" t="s">
-        <v>86</v>
+      <c r="D32" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="24"/>
@@ -10608,7 +12175,7 @@
       <c r="B33" s="13"/>
       <c r="C33" s="26"/>
       <c r="D33" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="27"/>
@@ -10618,8 +12185,8 @@
       <c r="A34" s="16"/>
       <c r="B34" s="21"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="36" t="s">
-        <v>86</v>
+      <c r="D34" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="24"/>
@@ -10630,7 +12197,7 @@
       <c r="B35" s="13"/>
       <c r="C35" s="26"/>
       <c r="D35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="27"/>
@@ -10640,8 +12207,8 @@
       <c r="A36" s="16"/>
       <c r="B36" s="21"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="36" t="s">
-        <v>86</v>
+      <c r="D36" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="24"/>
@@ -10652,7 +12219,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="26"/>
       <c r="D37" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="27"/>
@@ -10662,8 +12229,8 @@
       <c r="A38" s="16"/>
       <c r="B38" s="21"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="36" t="s">
-        <v>86</v>
+      <c r="D38" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="24"/>
@@ -10674,7 +12241,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="26"/>
       <c r="D39" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="27"/>
@@ -10684,8 +12251,8 @@
       <c r="A40" s="16"/>
       <c r="B40" s="21"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="36" t="s">
-        <v>86</v>
+      <c r="D40" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="24"/>
@@ -10696,7 +12263,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="26"/>
       <c r="D41" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="27"/>
@@ -10706,8 +12273,8 @@
       <c r="A42" s="16"/>
       <c r="B42" s="21"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="36" t="s">
-        <v>86</v>
+      <c r="D42" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="24"/>
@@ -10718,7 +12285,7 @@
       <c r="B43" s="13"/>
       <c r="C43" s="26"/>
       <c r="D43" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="27"/>
@@ -10728,8 +12295,8 @@
       <c r="A44" s="16"/>
       <c r="B44" s="21"/>
       <c r="C44" s="23"/>
-      <c r="D44" s="36" t="s">
-        <v>86</v>
+      <c r="D44" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="24"/>
@@ -10740,7 +12307,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="26"/>
       <c r="D45" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="27"/>
@@ -10750,8 +12317,8 @@
       <c r="A46" s="16"/>
       <c r="B46" s="21"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="36" t="s">
-        <v>86</v>
+      <c r="D46" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="24"/>
@@ -10762,7 +12329,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="26"/>
       <c r="D47" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="27"/>
@@ -10772,8 +12339,8 @@
       <c r="A48" s="16"/>
       <c r="B48" s="21"/>
       <c r="C48" s="23"/>
-      <c r="D48" s="36" t="s">
-        <v>86</v>
+      <c r="D48" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="24"/>
@@ -10784,7 +12351,7 @@
       <c r="B49" s="13"/>
       <c r="C49" s="26"/>
       <c r="D49" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="27"/>
@@ -10794,8 +12361,8 @@
       <c r="A50" s="16"/>
       <c r="B50" s="21"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="36" t="s">
-        <v>86</v>
+      <c r="D50" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="24"/>
@@ -10806,7 +12373,7 @@
       <c r="B51" s="13"/>
       <c r="C51" s="26"/>
       <c r="D51" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="27"/>
@@ -10816,8 +12383,8 @@
       <c r="A52" s="16"/>
       <c r="B52" s="21"/>
       <c r="C52" s="23"/>
-      <c r="D52" s="36" t="s">
-        <v>86</v>
+      <c r="D52" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="24"/>
@@ -10828,7 +12395,7 @@
       <c r="B53" s="13"/>
       <c r="C53" s="26"/>
       <c r="D53" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="27"/>
@@ -10838,8 +12405,8 @@
       <c r="A54" s="16"/>
       <c r="B54" s="21"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="36" t="s">
-        <v>86</v>
+      <c r="D54" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="24"/>
@@ -10850,7 +12417,7 @@
       <c r="B55" s="13"/>
       <c r="C55" s="26"/>
       <c r="D55" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="27"/>
@@ -10860,8 +12427,8 @@
       <c r="A56" s="16"/>
       <c r="B56" s="21"/>
       <c r="C56" s="23"/>
-      <c r="D56" s="36" t="s">
-        <v>86</v>
+      <c r="D56" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="24"/>
@@ -10872,7 +12439,7 @@
       <c r="B57" s="13"/>
       <c r="C57" s="26"/>
       <c r="D57" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="27"/>
@@ -10882,8 +12449,8 @@
       <c r="A58" s="16"/>
       <c r="B58" s="21"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="36" t="s">
-        <v>86</v>
+      <c r="D58" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="24"/>
@@ -10894,7 +12461,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="26"/>
       <c r="D59" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" s="28"/>
       <c r="F59" s="27"/>
@@ -10904,8 +12471,8 @@
       <c r="A60" s="16"/>
       <c r="B60" s="21"/>
       <c r="C60" s="23"/>
-      <c r="D60" s="36" t="s">
-        <v>86</v>
+      <c r="D60" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="24"/>
@@ -10916,7 +12483,7 @@
       <c r="B61" s="13"/>
       <c r="C61" s="26"/>
       <c r="D61" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="27"/>
@@ -10926,8 +12493,8 @@
       <c r="A62" s="16"/>
       <c r="B62" s="21"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="36" t="s">
-        <v>86</v>
+      <c r="D62" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="24"/>
@@ -10938,7 +12505,7 @@
       <c r="B63" s="13"/>
       <c r="C63" s="26"/>
       <c r="D63" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="27"/>
@@ -10948,8 +12515,8 @@
       <c r="A64" s="16"/>
       <c r="B64" s="21"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="36" t="s">
-        <v>86</v>
+      <c r="D64" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="24"/>
@@ -10960,7 +12527,7 @@
       <c r="B65" s="13"/>
       <c r="C65" s="26"/>
       <c r="D65" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="27"/>
@@ -10970,8 +12537,8 @@
       <c r="A66" s="16"/>
       <c r="B66" s="21"/>
       <c r="C66" s="23"/>
-      <c r="D66" s="36" t="s">
-        <v>86</v>
+      <c r="D66" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="24"/>
@@ -10982,7 +12549,7 @@
       <c r="B67" s="13"/>
       <c r="C67" s="26"/>
       <c r="D67" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="27"/>
@@ -10992,8 +12559,8 @@
       <c r="A68" s="16"/>
       <c r="B68" s="21"/>
       <c r="C68" s="23"/>
-      <c r="D68" s="36" t="s">
-        <v>86</v>
+      <c r="D68" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="24"/>
@@ -11004,7 +12571,7 @@
       <c r="B69" s="13"/>
       <c r="C69" s="26"/>
       <c r="D69" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" s="28"/>
       <c r="F69" s="27"/>
@@ -11014,8 +12581,8 @@
       <c r="A70" s="16"/>
       <c r="B70" s="21"/>
       <c r="C70" s="23"/>
-      <c r="D70" s="36" t="s">
-        <v>86</v>
+      <c r="D70" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="24"/>
@@ -11026,7 +12593,7 @@
       <c r="B71" s="13"/>
       <c r="C71" s="26"/>
       <c r="D71" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="27"/>
@@ -11036,8 +12603,8 @@
       <c r="A72" s="16"/>
       <c r="B72" s="21"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="36" t="s">
-        <v>86</v>
+      <c r="D72" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="24"/>
@@ -11048,7 +12615,7 @@
       <c r="B73" s="13"/>
       <c r="C73" s="26"/>
       <c r="D73" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="28"/>
       <c r="F73" s="27"/>
@@ -11058,8 +12625,8 @@
       <c r="A74" s="16"/>
       <c r="B74" s="21"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="36" t="s">
-        <v>86</v>
+      <c r="D74" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="24"/>
@@ -11070,7 +12637,7 @@
       <c r="B75" s="13"/>
       <c r="C75" s="26"/>
       <c r="D75" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="27"/>
@@ -11080,8 +12647,8 @@
       <c r="A76" s="16"/>
       <c r="B76" s="21"/>
       <c r="C76" s="23"/>
-      <c r="D76" s="36" t="s">
-        <v>86</v>
+      <c r="D76" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="24"/>
@@ -11092,7 +12659,7 @@
       <c r="B77" s="13"/>
       <c r="C77" s="26"/>
       <c r="D77" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" s="28"/>
       <c r="F77" s="27"/>
@@ -11102,8 +12669,8 @@
       <c r="A78" s="16"/>
       <c r="B78" s="21"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="36" t="s">
-        <v>86</v>
+      <c r="D78" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="24"/>
@@ -11114,7 +12681,7 @@
       <c r="B79" s="13"/>
       <c r="C79" s="26"/>
       <c r="D79" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="27"/>
@@ -11124,8 +12691,8 @@
       <c r="A80" s="16"/>
       <c r="B80" s="21"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="36" t="s">
-        <v>86</v>
+      <c r="D80" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="24"/>
@@ -11136,7 +12703,7 @@
       <c r="B81" s="13"/>
       <c r="C81" s="26"/>
       <c r="D81" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="27"/>
@@ -11146,8 +12713,8 @@
       <c r="A82" s="16"/>
       <c r="B82" s="21"/>
       <c r="C82" s="23"/>
-      <c r="D82" s="36" t="s">
-        <v>86</v>
+      <c r="D82" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="24"/>
@@ -11158,7 +12725,7 @@
       <c r="B83" s="13"/>
       <c r="C83" s="26"/>
       <c r="D83" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="27"/>
@@ -11168,8 +12735,8 @@
       <c r="A84" s="16"/>
       <c r="B84" s="21"/>
       <c r="C84" s="23"/>
-      <c r="D84" s="36" t="s">
-        <v>86</v>
+      <c r="D84" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="24"/>
@@ -11180,7 +12747,7 @@
       <c r="B85" s="13"/>
       <c r="C85" s="26"/>
       <c r="D85" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="27"/>
@@ -11190,8 +12757,8 @@
       <c r="A86" s="16"/>
       <c r="B86" s="21"/>
       <c r="C86" s="23"/>
-      <c r="D86" s="36" t="s">
-        <v>86</v>
+      <c r="D86" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="24"/>
@@ -11202,7 +12769,7 @@
       <c r="B87" s="13"/>
       <c r="C87" s="26"/>
       <c r="D87" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="27"/>
@@ -11212,8 +12779,8 @@
       <c r="A88" s="16"/>
       <c r="B88" s="21"/>
       <c r="C88" s="23"/>
-      <c r="D88" s="36" t="s">
-        <v>86</v>
+      <c r="D88" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="24"/>
@@ -11224,7 +12791,7 @@
       <c r="B89" s="13"/>
       <c r="C89" s="26"/>
       <c r="D89" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="27"/>
@@ -11234,8 +12801,8 @@
       <c r="A90" s="16"/>
       <c r="B90" s="21"/>
       <c r="C90" s="23"/>
-      <c r="D90" s="36" t="s">
-        <v>86</v>
+      <c r="D90" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="24"/>
@@ -11246,7 +12813,7 @@
       <c r="B91" s="13"/>
       <c r="C91" s="26"/>
       <c r="D91" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="27"/>
@@ -11256,8 +12823,8 @@
       <c r="A92" s="16"/>
       <c r="B92" s="21"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="36" t="s">
-        <v>86</v>
+      <c r="D92" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="24"/>
@@ -11268,7 +12835,7 @@
       <c r="B93" s="13"/>
       <c r="C93" s="26"/>
       <c r="D93" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="27"/>
@@ -11278,8 +12845,8 @@
       <c r="A94" s="16"/>
       <c r="B94" s="21"/>
       <c r="C94" s="23"/>
-      <c r="D94" s="36" t="s">
-        <v>86</v>
+      <c r="D94" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E94" s="25"/>
       <c r="F94" s="24"/>
@@ -11290,7 +12857,7 @@
       <c r="B95" s="13"/>
       <c r="C95" s="26"/>
       <c r="D95" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="27"/>
@@ -11300,8 +12867,8 @@
       <c r="A96" s="16"/>
       <c r="B96" s="21"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="36" t="s">
-        <v>86</v>
+      <c r="D96" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="24"/>
@@ -11312,7 +12879,7 @@
       <c r="B97" s="13"/>
       <c r="C97" s="26"/>
       <c r="D97" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="27"/>
@@ -11322,8 +12889,8 @@
       <c r="A98" s="16"/>
       <c r="B98" s="21"/>
       <c r="C98" s="23"/>
-      <c r="D98" s="36" t="s">
-        <v>86</v>
+      <c r="D98" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="24"/>
@@ -11334,7 +12901,7 @@
       <c r="B99" s="13"/>
       <c r="C99" s="26"/>
       <c r="D99" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="27"/>
@@ -11344,8 +12911,8 @@
       <c r="A100" s="16"/>
       <c r="B100" s="21"/>
       <c r="C100" s="23"/>
-      <c r="D100" s="36" t="s">
-        <v>86</v>
+      <c r="D100" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="24"/>
